--- a/documentation/MultiUserIncreaseTa.xlsx
+++ b/documentation/MultiUserIncreaseTa.xlsx
@@ -464,31 +464,31 @@
         <v>16.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="D1" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="E1" t="n" s="0">
+      <c r="J1" t="n" s="0">
         <v>27.0</v>
       </c>
-      <c r="F1" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="I1" t="n" s="0">
-        <v>106.0</v>
-      </c>
-      <c r="J1" t="n" s="0">
-        <v>28.0</v>
-      </c>
       <c r="K1" t="n" s="0">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -496,34 +496,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>52.0</v>
+        <v>7.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>31.0</v>
+        <v>12.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -531,34 +531,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>12.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>13.0</v>
+        <v>52.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>33.0</v>
+        <v>9.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -566,34 +566,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>20.0</v>
+        <v>51.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>17.0</v>
+        <v>32.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>13.0</v>
+        <v>38.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>46.0</v>
+        <v>9.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>20.0</v>
+        <v>48.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -601,34 +601,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>56.0</v>
+        <v>13.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>93.0</v>
+        <v>18.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>41.0</v>
+        <v>22.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>49.0</v>
+        <v>22.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>56.0</v>
+        <v>37.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>51.0</v>
+        <v>18.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>49.0</v>
+        <v>15.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>52.0</v>
+        <v>44.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>64.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -636,34 +636,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>13.0</v>
+        <v>41.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>16.0</v>
+        <v>69.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -671,34 +671,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>27.0</v>
+        <v>87.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>24.0</v>
+        <v>11.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -706,34 +706,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="C8" t="n" s="0">
-        <v>14.0</v>
-      </c>
       <c r="D8" t="n" s="0">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>18.0</v>
+        <v>36.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>19.0</v>
+        <v>51.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -744,31 +744,31 @@
         <v>18.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="D9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="E9" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="F9" t="n" s="0">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -776,34 +776,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>11.0</v>
+        <v>35.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>15.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>23.0</v>
+        <v>55.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>22.0</v>
+        <v>29.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>28.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -811,34 +811,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="C11" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="E11" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="F11" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>14.0</v>
-      </c>
       <c r="H11" t="n" s="0">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>72.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -846,34 +846,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>15.0</v>
+        <v>59.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>54.0</v>
+        <v>11.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>21.0</v>
+        <v>41.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>54.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -881,34 +881,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>82.0</v>
+        <v>8.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -916,34 +916,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
         <v>21.0</v>
       </c>
-      <c r="C14" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="D14" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="E14" t="n" s="0">
+      <c r="K14" t="n" s="0">
         <v>20.0</v>
-      </c>
-      <c r="F14" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G14" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="H14" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="I14" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="J14" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="K14" t="n" s="0">
-        <v>28.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -951,34 +951,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>42.0</v>
+        <v>6.0</v>
       </c>
       <c r="J15" t="n" s="0">
         <v>20.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -986,34 +986,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>18.0</v>
+        <v>28.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>48.0</v>
+        <v>35.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>43.0</v>
+        <v>5.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>19.0</v>
+        <v>38.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -1039,34 +1039,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="C1" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="D1" t="n" s="0">
-        <v>38.0</v>
-      </c>
       <c r="E1" t="n" s="0">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F1" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="G1" t="n" s="0">
-        <v>916.0</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>40.0</v>
-      </c>
       <c r="I1" t="n" s="0">
-        <v>18.0</v>
+        <v>54.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1077,31 +1077,31 @@
         <v>15.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>43.0</v>
+        <v>7.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>72.0</v>
-      </c>
       <c r="G2" t="n" s="0">
-        <v>762.0</v>
+        <v>8.0</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>20.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>58.0</v>
+        <v>8.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -1109,34 +1109,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>58.0</v>
+        <v>6.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>118.0</v>
+        <v>38.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>285.0</v>
+        <v>8.0</v>
       </c>
       <c r="H3" t="n" s="0">
         <v>13.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>52.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1144,34 +1144,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>124.0</v>
+        <v>9.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="H4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="I4" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="J4" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>62.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1179,34 +1179,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>64.0</v>
+        <v>16.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>173.0</v>
+        <v>43.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>78.0</v>
+        <v>11.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>67.0</v>
+        <v>9.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>59.0</v>
+        <v>13.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>70.0</v>
+        <v>14.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>51.0</v>
+        <v>12.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>81.0</v>
+        <v>26.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>59.0</v>
+        <v>15.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>141.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -1214,34 +1214,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>41.0</v>
+        <v>7.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>122.0</v>
+        <v>14.0</v>
       </c>
       <c r="J6" t="n" s="0">
         <v>12.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>164.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1249,34 +1249,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>195.0</v>
+        <v>37.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>62.0</v>
+        <v>10.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>38.0</v>
+        <v>11.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>98.0</v>
+        <v>10.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>30.0</v>
+        <v>13.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>47.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1284,34 +1284,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>28.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>38.0</v>
+        <v>9.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>39.0</v>
+        <v>13.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>65.0</v>
+        <v>12.0</v>
       </c>
       <c r="H8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="I8" t="n" s="0">
-        <v>121.0</v>
-      </c>
       <c r="J8" t="n" s="0">
-        <v>54.0</v>
+        <v>6.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>69.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1319,34 +1319,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>91.0</v>
+        <v>6.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>146.0</v>
+        <v>51.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>48.0</v>
+        <v>9.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>33.0</v>
+        <v>8.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>21.0</v>
+        <v>45.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>129.0</v>
+        <v>11.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>27.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -1354,34 +1354,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>61.0</v>
+        <v>35.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>28.0</v>
+        <v>6.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>69.0</v>
+        <v>9.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>23.0</v>
+        <v>50.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>84.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -1389,34 +1389,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>80.0</v>
+        <v>14.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>61.0</v>
+        <v>29.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>61.0</v>
+        <v>9.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>165.0</v>
+        <v>11.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>38.0</v>
+        <v>18.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>115.0</v>
+        <v>8.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>37.0</v>
+        <v>8.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>114.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -1424,34 +1424,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>84.0</v>
+        <v>18.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>20.0</v>
+        <v>34.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>29.0</v>
+        <v>8.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>139.0</v>
+        <v>10.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>46.0</v>
+        <v>6.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>40.0</v>
+        <v>7.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>74.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -1459,31 +1459,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>34.0</v>
+        <v>13.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>68.0</v>
+        <v>8.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>130.0</v>
+        <v>11.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>11.0</v>
+        <v>38.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="K13" t="n" s="0">
         <v>26.0</v>
@@ -1494,34 +1494,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>77.0</v>
+        <v>17.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>27.0</v>
+        <v>8.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>94.0</v>
+        <v>11.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>47.0</v>
+        <v>19.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>37.0</v>
+        <v>11.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -1529,34 +1529,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>70.0</v>
+        <v>12.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>46.0</v>
+        <v>11.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>23.0</v>
+        <v>45.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>102.0</v>
+        <v>25.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -1564,34 +1564,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>40.0</v>
+        <v>15.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>88.0</v>
+        <v>5.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>100.0</v>
+        <v>58.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>107.0</v>
+        <v>10.0</v>
       </c>
       <c r="H16" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="I16" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="J16" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="K16" t="n" s="0">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -1617,34 +1617,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>38.0</v>
+        <v>47.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>21.0</v>
+        <v>36.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>14.0</v>
+        <v>24.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>14.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1652,34 +1652,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>26.0</v>
+        <v>97.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>84.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>14.0</v>
+        <v>46.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>16.0</v>
+        <v>41.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>22.0</v>
+        <v>56.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>19.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -1687,34 +1687,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>51.0</v>
+        <v>124.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>42.0</v>
+        <v>12.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>18.0</v>
+        <v>133.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>10.0</v>
+        <v>77.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>19.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1722,34 +1722,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>68.0</v>
+        <v>77.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>35.0</v>
+        <v>13.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>18.0</v>
+        <v>85.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>16.0</v>
+        <v>90.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>14.0</v>
+        <v>195.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>26.0</v>
+        <v>140.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>17.0</v>
+        <v>91.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>39.0</v>
+        <v>13.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>20.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1757,34 +1757,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>158.0</v>
+        <v>150.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>114.0</v>
+        <v>69.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>55.0</v>
+        <v>30.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>44.0</v>
+        <v>131.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>133.0</v>
+        <v>50.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>52.0</v>
+        <v>236.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>217.0</v>
+        <v>36.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>46.0</v>
+        <v>13.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>126.0</v>
+        <v>102.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>50.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -1792,34 +1792,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>240.0</v>
+        <v>169.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>36.0</v>
+        <v>207.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>20.0</v>
+        <v>169.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>146.0</v>
+        <v>38.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>16.0</v>
+        <v>141.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>73.0</v>
+        <v>128.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>449.0</v>
+        <v>148.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>14.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1827,34 +1827,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>59.0</v>
+        <v>185.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>51.0</v>
+        <v>66.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>17.0</v>
+        <v>282.0</v>
       </c>
       <c r="E7" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="F7" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>21.0</v>
-      </c>
       <c r="H7" t="n" s="0">
-        <v>34.0</v>
+        <v>22.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>18.0</v>
+        <v>48.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>141.0</v>
+        <v>11.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1862,34 +1862,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>31.0</v>
+        <v>67.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>117.0</v>
+        <v>26.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>24.0</v>
+        <v>45.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>50.0</v>
+        <v>19.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>111.0</v>
+        <v>19.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>23.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1897,34 +1897,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>27.0</v>
+        <v>51.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>171.0</v>
+        <v>17.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>102.0</v>
+        <v>12.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>18.0</v>
+        <v>52.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>32.0</v>
+        <v>13.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>19.0</v>
+        <v>50.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>9.0</v>
+        <v>54.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>93.0</v>
+        <v>42.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -1932,34 +1932,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>63.0</v>
+        <v>14.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>18.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="G10" t="n" s="0">
+        <v>58.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
         <v>29.0</v>
       </c>
-      <c r="H10" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="I10" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="J10" t="n" s="0">
-        <v>28.0</v>
+        <v>64.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -1967,34 +1967,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>16.0</v>
+        <v>120.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>34.0</v>
+        <v>48.0</v>
       </c>
       <c r="G11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
         <v>27.0</v>
       </c>
-      <c r="H11" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="I11" t="n" s="0">
+      <c r="K11" t="n" s="0">
         <v>14.0</v>
-      </c>
-      <c r="J11" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="K11" t="n" s="0">
-        <v>23.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -2002,34 +2002,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>31.0</v>
+        <v>58.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>17.0</v>
+        <v>95.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>20.0</v>
+        <v>52.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>23.0</v>
+        <v>67.0</v>
       </c>
       <c r="I12" t="n" s="0">
         <v>19.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>51.0</v>
+        <v>59.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -2037,34 +2037,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>30.0</v>
+        <v>19.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>196.0</v>
+        <v>12.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>40.0</v>
+        <v>15.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="G13" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>211.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
         <v>44.0</v>
-      </c>
-      <c r="H13" t="n" s="0">
-        <v>32.0</v>
-      </c>
-      <c r="I13" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="J13" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="K13" t="n" s="0">
-        <v>41.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -2072,34 +2072,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>61.0</v>
+        <v>11.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>49.0</v>
+        <v>27.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="E14" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
         <v>21.0</v>
       </c>
-      <c r="F14" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="G14" t="n" s="0">
-        <v>58.0</v>
-      </c>
-      <c r="H14" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="I14" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="J14" t="n" s="0">
-        <v>48.0</v>
+        <v>27.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>135.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -2107,34 +2107,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>49.0</v>
+        <v>8.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>26.0</v>
+        <v>114.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>47.0</v>
+        <v>16.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>27.0</v>
+        <v>37.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>41.0</v>
+        <v>5.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="I15" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
         <v>15.0</v>
-      </c>
-      <c r="J15" t="n" s="0">
-        <v>40.0</v>
-      </c>
-      <c r="K15" t="n" s="0">
-        <v>71.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -2142,34 +2142,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>30.0</v>
+        <v>16.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>90.0</v>
+        <v>23.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
       <c r="G16" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
         <v>33.0</v>
       </c>
-      <c r="H16" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="I16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="J16" t="n" s="0">
-        <v>35.0</v>
-      </c>
       <c r="K16" t="n" s="0">
-        <v>30.0</v>
+        <v>82.0</v>
       </c>
     </row>
   </sheetData>
@@ -2195,34 +2195,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>38.0</v>
+        <v>279.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>15.0</v>
+        <v>551.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>22.0</v>
+        <v>101.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>13.0</v>
+        <v>75.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>19.0</v>
+        <v>236.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>15.0</v>
+        <v>165.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>20.0</v>
+        <v>187.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>14.0</v>
+        <v>149.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>110.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2230,34 +2230,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>29.0</v>
+        <v>250.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>23.0</v>
+        <v>372.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>35.0</v>
+        <v>168.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>27.0</v>
+        <v>223.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>23.0</v>
+        <v>255.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>49.0</v>
+        <v>201.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>12.0</v>
+        <v>67.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>15.0</v>
+        <v>64.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>17.0</v>
+        <v>121.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>256.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -2265,34 +2265,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>31.0</v>
+        <v>12.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>37.0</v>
+        <v>261.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>22.0</v>
+        <v>83.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>16.0</v>
+        <v>86.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>23.0</v>
+        <v>192.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>14.0</v>
+        <v>149.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>16.0</v>
+        <v>262.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>17.0</v>
+        <v>78.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>34.0</v>
+        <v>237.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -2300,34 +2300,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>34.0</v>
+        <v>392.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>58.0</v>
+        <v>263.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>15.0</v>
+        <v>355.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>25.0</v>
+        <v>220.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>32.0</v>
+        <v>119.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>16.0</v>
+        <v>288.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>29.0</v>
+        <v>42.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>19.0</v>
+        <v>99.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>428.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -2335,34 +2335,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>252.0</v>
+        <v>33.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>122.0</v>
+        <v>501.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>116.0</v>
+        <v>33.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>65.0</v>
+        <v>373.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>66.0</v>
+        <v>163.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>277.0</v>
+        <v>83.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>53.0</v>
+        <v>186.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>152.0</v>
+        <v>331.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>46.0</v>
+        <v>142.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>117.0</v>
+        <v>241.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -2370,34 +2370,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>178.0</v>
+        <v>335.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>260.0</v>
+        <v>74.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>35.0</v>
+        <v>255.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>21.0</v>
+        <v>357.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>21.0</v>
+        <v>217.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>177.0</v>
+        <v>184.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>24.0</v>
+        <v>105.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>419.0</v>
+        <v>189.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>12.0</v>
+        <v>91.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>102.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -2405,34 +2405,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>30.0</v>
+        <v>314.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>100.0</v>
+        <v>179.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>407.0</v>
+        <v>303.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>26.0</v>
+        <v>234.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>44.0</v>
+        <v>110.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>38.0</v>
+        <v>196.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>58.0</v>
+        <v>12.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>12.0</v>
+        <v>181.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>31.0</v>
+        <v>419.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -2440,34 +2440,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>79.0</v>
+        <v>37.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>37.0</v>
+        <v>343.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>96.0</v>
+        <v>131.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>167.0</v>
+        <v>271.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>38.0</v>
+        <v>60.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>32.0</v>
+        <v>366.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>28.0</v>
+        <v>90.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>290.0</v>
+        <v>227.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>15.0</v>
+        <v>166.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>164.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -2475,34 +2475,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>21.0</v>
+        <v>256.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>31.0</v>
+        <v>369.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>35.0</v>
+        <v>120.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>34.0</v>
+        <v>297.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>59.0</v>
+        <v>178.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>97.0</v>
+        <v>167.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>28.0</v>
+        <v>78.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>16.0</v>
+        <v>57.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -2510,34 +2510,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>26.0</v>
+        <v>240.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>31.0</v>
+        <v>99.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>26.0</v>
+        <v>60.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>45.0</v>
+        <v>14.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>35.0</v>
+        <v>55.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>35.0</v>
+        <v>64.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>27.0</v>
+        <v>334.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>24.0</v>
+        <v>171.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>51.0</v>
+        <v>421.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -2545,34 +2545,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>23.0</v>
+        <v>391.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>30.0</v>
+        <v>151.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>61.0</v>
+        <v>75.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>106.0</v>
+        <v>423.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>27.0</v>
+        <v>344.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>45.0</v>
+        <v>315.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>33.0</v>
+        <v>269.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>12.0</v>
+        <v>85.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>27.0</v>
+        <v>333.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -2580,34 +2580,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>24.0</v>
+        <v>363.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>48.0</v>
+        <v>130.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>33.0</v>
+        <v>314.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>68.0</v>
+        <v>12.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>36.0</v>
+        <v>10.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>28.0</v>
+        <v>181.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>22.0</v>
+        <v>87.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>30.0</v>
+        <v>501.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -2615,34 +2615,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>29.0</v>
+        <v>574.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>104.0</v>
+        <v>184.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>23.0</v>
+        <v>47.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>88.0</v>
+        <v>306.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>41.0</v>
+        <v>363.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>109.0</v>
+        <v>371.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>39.0</v>
+        <v>150.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>27.0</v>
+        <v>49.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>28.0</v>
+        <v>328.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -2650,34 +2650,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>32.0</v>
+        <v>46.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>83.0</v>
+        <v>315.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>42.0</v>
+        <v>316.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>97.0</v>
+        <v>38.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>34.0</v>
+        <v>213.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>31.0</v>
+        <v>59.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>36.0</v>
+        <v>300.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>241.0</v>
+        <v>80.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>37.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -2685,34 +2685,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
+        <v>195.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>57.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>422.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
         <v>28.0</v>
       </c>
-      <c r="C15" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="D15" t="n" s="0">
-        <v>47.0</v>
-      </c>
-      <c r="E15" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="F15" t="n" s="0">
-        <v>59.0</v>
-      </c>
-      <c r="G15" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="H15" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="I15" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="J15" t="n" s="0">
-        <v>49.0</v>
-      </c>
       <c r="K15" t="n" s="0">
-        <v>38.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -2720,34 +2720,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>56.0</v>
+        <v>96.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>70.0</v>
+        <v>195.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>28.0</v>
+        <v>211.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>30.0</v>
+        <v>195.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>24.0</v>
+        <v>177.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>29.0</v>
+        <v>217.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>53.0</v>
+        <v>36.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>82.0</v>
+        <v>268.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>34.0</v>
+        <v>195.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -2773,34 +2773,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>32.0</v>
+        <v>633.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>103.0</v>
+        <v>365.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>34.0</v>
+        <v>417.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>22.0</v>
+        <v>379.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>29.0</v>
+        <v>493.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>28.0</v>
+        <v>452.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>29.0</v>
+        <v>576.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>30.0</v>
+        <v>517.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>25.0</v>
+        <v>449.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>29.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2808,34 +2808,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>87.0</v>
+        <v>627.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>34.0</v>
+        <v>304.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>66.0</v>
+        <v>212.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>33.0</v>
+        <v>315.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>33.0</v>
+        <v>158.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>33.0</v>
+        <v>86.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>33.0</v>
+        <v>99.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>46.0</v>
+        <v>15.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>29.0</v>
+        <v>57.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>32.0</v>
+        <v>156.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -2843,34 +2843,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>57.0</v>
+        <v>579.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>36.0</v>
+        <v>162.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>97.0</v>
+        <v>431.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>34.0</v>
+        <v>173.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>41.0</v>
+        <v>496.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>47.0</v>
+        <v>603.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>33.0</v>
+        <v>462.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>31.0</v>
+        <v>639.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>29.0</v>
+        <v>467.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>40.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -2878,34 +2878,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>39.0</v>
+        <v>574.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>29.0</v>
+        <v>396.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>96.0</v>
+        <v>193.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>29.0</v>
+        <v>491.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>44.0</v>
+        <v>247.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>35.0</v>
+        <v>789.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>28.0</v>
+        <v>124.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>33.0</v>
+        <v>678.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>62.0</v>
+        <v>87.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>59.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -2913,34 +2913,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>236.0</v>
+        <v>21.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>179.0</v>
+        <v>132.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>217.0</v>
+        <v>449.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>131.0</v>
+        <v>87.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>186.0</v>
+        <v>418.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>163.0</v>
+        <v>633.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>135.0</v>
+        <v>329.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>192.0</v>
+        <v>447.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>142.0</v>
+        <v>588.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>289.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -2948,34 +2948,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>81.0</v>
+        <v>460.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>441.0</v>
+        <v>357.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>108.0</v>
+        <v>217.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>492.0</v>
+        <v>568.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>88.0</v>
+        <v>186.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>50.0</v>
+        <v>17.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>95.0</v>
+        <v>184.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>143.0</v>
+        <v>9.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>106.0</v>
+        <v>407.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -2983,34 +2983,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>81.0</v>
+        <v>160.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>47.0</v>
+        <v>149.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>236.0</v>
+        <v>349.0</v>
       </c>
       <c r="E7" t="n" s="0">
+        <v>643.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>699.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>563.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>419.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>497.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>554.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
         <v>105.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>44.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>82.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>32.0</v>
-      </c>
-      <c r="J7" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="K7" t="n" s="0">
-        <v>42.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -3018,34 +3018,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>34.0</v>
+        <v>524.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>48.0</v>
+        <v>411.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>53.0</v>
+        <v>117.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>54.0</v>
+        <v>411.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>98.0</v>
+        <v>155.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>50.0</v>
+        <v>846.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>60.0</v>
+        <v>202.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>74.0</v>
+        <v>11.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>42.0</v>
+        <v>83.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>29.0</v>
+        <v>531.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -3053,34 +3053,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>206.0</v>
+        <v>135.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>35.0</v>
+        <v>90.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>54.0</v>
+        <v>350.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>38.0</v>
+        <v>25.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>83.0</v>
+        <v>531.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>261.0</v>
+        <v>612.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>77.0</v>
+        <v>336.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>66.0</v>
+        <v>699.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>51.0</v>
+        <v>604.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>33.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -3088,34 +3088,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>45.0</v>
+        <v>470.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>28.0</v>
+        <v>367.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>75.0</v>
+        <v>247.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>60.0</v>
+        <v>523.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>31.0</v>
+        <v>137.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>29.0</v>
+        <v>731.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>100.0</v>
+        <v>248.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>47.0</v>
+        <v>547.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>36.0</v>
+        <v>61.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>25.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -3123,34 +3123,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>43.0</v>
+        <v>72.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>41.0</v>
+        <v>356.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>55.0</v>
+        <v>154.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>71.0</v>
+        <v>315.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>353.0</v>
+        <v>723.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>48.0</v>
+        <v>171.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>37.0</v>
+        <v>550.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>32.0</v>
+        <v>472.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>38.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -3158,34 +3158,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>44.0</v>
+        <v>642.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>61.0</v>
+        <v>646.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>45.0</v>
+        <v>245.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>39.0</v>
+        <v>438.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>29.0</v>
+        <v>118.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>56.0</v>
+        <v>703.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>43.0</v>
+        <v>501.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>196.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -3193,34 +3193,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>41.0</v>
+        <v>78.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>31.0</v>
+        <v>478.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>35.0</v>
+        <v>485.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>49.0</v>
+        <v>350.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>34.0</v>
+        <v>404.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>472.0</v>
+        <v>520.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>56.0</v>
+        <v>80.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>241.0</v>
+        <v>488.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>83.0</v>
+        <v>544.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>157.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -3228,34 +3228,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>29.0</v>
+        <v>533.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>29.0</v>
+        <v>223.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>74.0</v>
+        <v>255.0</v>
       </c>
       <c r="F14" t="n" s="0">
+        <v>167.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
         <v>41.0</v>
       </c>
-      <c r="G14" t="n" s="0">
-        <v>32.0</v>
-      </c>
       <c r="H14" t="n" s="0">
-        <v>35.0</v>
+        <v>558.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>108.0</v>
+        <v>43.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>142.0</v>
+        <v>529.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>29.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -3263,34 +3263,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>112.0</v>
+        <v>496.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>36.0</v>
+        <v>437.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>36.0</v>
+        <v>203.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>42.0</v>
+        <v>441.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>39.0</v>
+        <v>539.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>34.0</v>
+        <v>65.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>95.0</v>
+        <v>627.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>46.0</v>
+        <v>511.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>179.0</v>
+        <v>523.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -3298,34 +3298,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>274.0</v>
+        <v>625.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>139.0</v>
+        <v>36.0</v>
       </c>
       <c r="D16" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>237.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
         <v>37.0</v>
       </c>
-      <c r="E16" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="F16" t="n" s="0">
-        <v>67.0</v>
-      </c>
-      <c r="G16" t="n" s="0">
-        <v>24.0</v>
-      </c>
       <c r="H16" t="n" s="0">
-        <v>32.0</v>
+        <v>291.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>75.0</v>
+        <v>34.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>127.0</v>
+        <v>21.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>124.0</v>
+        <v>143.0</v>
       </c>
     </row>
   </sheetData>
@@ -3351,34 +3351,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
         <v>18.0</v>
       </c>
-      <c r="C1" t="n" s="0">
-        <v>68.0</v>
-      </c>
-      <c r="D1" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="E1" t="n" s="0">
-        <v>40.0</v>
-      </c>
       <c r="F1" t="n" s="0">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>504.0</v>
+        <v>23.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>47.0</v>
+        <v>15.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -3386,34 +3386,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>49.0</v>
+        <v>14.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>35.0</v>
+        <v>25.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>45.0</v>
+        <v>20.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>323.0</v>
+        <v>15.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>215.0</v>
+        <v>15.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -3421,31 +3421,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
         <v>20.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>45.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="J3" t="n" s="0">
-        <v>254.0</v>
       </c>
       <c r="K3" t="n" s="0">
         <v>19.0</v>
@@ -3459,31 +3459,31 @@
         <v>17.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>39.0</v>
+        <v>13.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>12.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>735.0</v>
+        <v>24.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="I4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
         <v>19.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>295.0</v>
-      </c>
-      <c r="K4" t="n" s="0">
-        <v>17.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -3491,34 +3491,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>59.0</v>
+        <v>17.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>120.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>44.0</v>
+        <v>14.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>94.0</v>
+        <v>43.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>67.0</v>
+        <v>11.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>209.0</v>
+        <v>24.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>100.0</v>
+        <v>55.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>45.0</v>
+        <v>21.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>95.0</v>
+        <v>13.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -3526,34 +3526,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>130.0</v>
+        <v>12.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>32.0</v>
+        <v>70.0</v>
       </c>
       <c r="F6" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="G6" t="n" s="0">
-        <v>81.0</v>
-      </c>
       <c r="H6" t="n" s="0">
-        <v>59.0</v>
+        <v>10.0</v>
       </c>
       <c r="I6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
         <v>17.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="K6" t="n" s="0">
-        <v>23.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -3561,34 +3561,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>47.0</v>
+        <v>15.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="E7" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
         <v>21.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>71.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="J7" t="n" s="0">
-        <v>61.0</v>
-      </c>
-      <c r="K7" t="n" s="0">
-        <v>16.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -3596,34 +3596,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>24.0</v>
+        <v>11.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>57.0</v>
+        <v>27.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>41.0</v>
+        <v>14.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -3631,34 +3631,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>77.0</v>
+        <v>20.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>53.0</v>
+        <v>11.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>19.0</v>
+        <v>33.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>306.0</v>
+        <v>51.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>32.0</v>
+        <v>6.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>15.0</v>
+        <v>40.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -3666,34 +3666,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>47.0</v>
+        <v>13.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="E10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
         <v>23.0</v>
       </c>
-      <c r="F10" t="n" s="0">
-        <v>58.0</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="H10" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="I10" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="J10" t="n" s="0">
-        <v>48.0</v>
-      </c>
       <c r="K10" t="n" s="0">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -3701,34 +3701,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>67.0</v>
+        <v>14.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>35.0</v>
+        <v>12.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>26.0</v>
+        <v>16.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>107.0</v>
+        <v>11.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>132.0</v>
+        <v>8.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -3736,34 +3736,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>32.0</v>
+        <v>14.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>30.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>58.0</v>
+        <v>12.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>39.0</v>
+        <v>8.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>49.0</v>
+        <v>38.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>41.0</v>
+        <v>12.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>46.0</v>
+        <v>6.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>31.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -3771,34 +3771,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>143.0</v>
+        <v>9.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>32.0</v>
+        <v>7.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>54.0</v>
+        <v>44.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>30.0</v>
+        <v>9.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>42.0</v>
+        <v>10.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>50.0</v>
+        <v>7.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>61.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -3806,34 +3806,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>46.0</v>
+        <v>13.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>202.0</v>
+        <v>9.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>27.0</v>
+        <v>11.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>45.0</v>
+        <v>20.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>41.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -3841,34 +3841,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>65.0</v>
+        <v>21.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>35.0</v>
+        <v>13.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>37.0</v>
+        <v>7.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>59.0</v>
+        <v>38.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>32.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -3876,34 +3876,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>26.0</v>
+        <v>16.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>35.0</v>
+        <v>18.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>71.0</v>
+        <v>12.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>79.0</v>
+        <v>7.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>64.0</v>
+        <v>11.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>61.0</v>
+        <v>13.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>33.0</v>
+        <v>6.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>52.0</v>
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>
@@ -3929,34 +3929,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="C1" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="D1" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="E1" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="F1" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="I1" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="J1" t="n" s="0">
-        <v>26.0</v>
-      </c>
       <c r="K1" t="n" s="0">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -3964,34 +3964,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>32.0</v>
+        <v>15.0</v>
       </c>
       <c r="D2" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>69.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
         <v>21.0</v>
       </c>
-      <c r="E2" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="I2" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -3999,34 +3999,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G3" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="H3" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="J3" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="K3" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4034,34 +4034,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="F4" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>60.0</v>
+        <v>9.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -4069,34 +4069,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>51.0</v>
+        <v>9.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>42.0</v>
+        <v>13.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>109.0</v>
+        <v>27.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>48.0</v>
+        <v>12.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>52.0</v>
+        <v>31.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>44.0</v>
+        <v>10.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>93.0</v>
+        <v>27.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>94.0</v>
+        <v>18.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>48.0</v>
+        <v>16.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>104.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -4104,34 +4104,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="C6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="D6" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>30.0</v>
-      </c>
       <c r="G6" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>30.0</v>
+        <v>46.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>100.0</v>
+        <v>18.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -4139,34 +4139,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -4177,31 +4177,31 @@
         <v>10.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>43.0</v>
+        <v>12.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>14.0</v>
+        <v>117.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -4209,34 +4209,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>15.0</v>
+        <v>34.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>18.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>40.0</v>
+        <v>12.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>17.0</v>
+        <v>62.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -4244,34 +4244,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>41.0</v>
+        <v>8.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -4279,34 +4279,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="G11" t="n" s="0">
         <v>16.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>39.0</v>
+        <v>7.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>15.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -4314,34 +4314,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>23.0</v>
+        <v>6.0</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>11.0</v>
       </c>
       <c r="D12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
         <v>24.0</v>
-      </c>
-      <c r="E12" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="F12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="G12" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="H12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="I12" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="J12" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="K12" t="n" s="0">
-        <v>20.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -4349,34 +4349,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="D13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="E13" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="F13" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="G13" t="n" s="0">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="I13" t="n" s="0">
         <v>16.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>21.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -4384,34 +4384,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>26.0</v>
+        <v>20.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
       <c r="G14" t="n" s="0">
         <v>12.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>13.0</v>
+        <v>45.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>37.0</v>
+        <v>6.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -4419,34 +4419,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="C15" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="D15" t="n" s="0">
-        <v>19.0</v>
-      </c>
       <c r="E15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="F15" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="G15" t="n" s="0">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>21.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -4454,34 +4454,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -4507,34 +4507,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
         <v>18.0</v>
-      </c>
-      <c r="D1" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="E1" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="F1" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="I1" t="n" s="0">
-        <v>39.0</v>
-      </c>
-      <c r="J1" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="K1" t="n" s="0">
-        <v>14.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -4542,34 +4542,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>19.0</v>
+        <v>35.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="E2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>41.0</v>
-      </c>
       <c r="G2" t="n" s="0">
-        <v>37.0</v>
+        <v>130.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>54.0</v>
+        <v>9.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -4577,34 +4577,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>37.0</v>
+        <v>20.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>11.0</v>
+        <v>72.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>36.0</v>
+        <v>15.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>11.0</v>
+        <v>148.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>43.0</v>
+        <v>18.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>69.0</v>
+        <v>7.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>44.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4612,34 +4612,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>41.0</v>
+        <v>13.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>81.0</v>
+        <v>44.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>18.0</v>
+        <v>63.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>12.0</v>
+        <v>100.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
       <c r="I4" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
         <v>17.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="K4" t="n" s="0">
-        <v>12.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -4647,34 +4647,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>75.0</v>
+        <v>11.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>65.0</v>
+        <v>15.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>161.0</v>
+        <v>27.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>42.0</v>
+        <v>14.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>55.0</v>
+        <v>11.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>105.0</v>
+        <v>10.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>85.0</v>
+        <v>11.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>68.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -4682,34 +4682,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="C6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="D6" t="n" s="0">
+      <c r="J6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
         <v>29.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>82.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="K6" t="n" s="0">
-        <v>85.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -4717,34 +4717,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>17.0</v>
+        <v>54.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -4752,31 +4752,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="C8" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>47.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>24.0</v>
-      </c>
       <c r="G8" t="n" s="0">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>70.0</v>
+        <v>9.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>59.0</v>
+        <v>12.0</v>
       </c>
       <c r="K8" t="n" s="0">
         <v>16.0</v>
@@ -4787,34 +4787,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>35.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="D9" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
         <v>14.0</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="H9" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="I9" t="n" s="0">
-        <v>74.0</v>
-      </c>
-      <c r="J9" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="K9" t="n" s="0">
-        <v>21.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -4822,34 +4822,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="C10" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="H10" t="n" s="0">
-        <v>44.0</v>
-      </c>
-      <c r="I10" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="J10" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="K10" t="n" s="0">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -4857,34 +4857,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>44.0</v>
+        <v>11.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>12.0</v>
+        <v>37.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>36.0</v>
+        <v>15.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>90.0</v>
+        <v>13.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>11.0</v>
+        <v>53.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>48.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -4892,34 +4892,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="C12" t="n" s="0">
-        <v>42.0</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="E12" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="F12" t="n" s="0">
-        <v>19.0</v>
-      </c>
       <c r="G12" t="n" s="0">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>37.0</v>
+        <v>7.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>96.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -4927,34 +4927,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>43.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="F13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
         <v>15.0</v>
-      </c>
-      <c r="G13" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="H13" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="I13" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="J13" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="K13" t="n" s="0">
-        <v>92.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -4962,34 +4962,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>17.0</v>
+        <v>36.0</v>
       </c>
       <c r="H14" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
         <v>21.0</v>
-      </c>
-      <c r="I14" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="J14" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="K14" t="n" s="0">
-        <v>49.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -4997,34 +4997,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>40.0</v>
+        <v>26.0</v>
       </c>
       <c r="G15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
         <v>18.0</v>
       </c>
-      <c r="H15" t="n" s="0">
-        <v>63.0</v>
-      </c>
       <c r="I15" t="n" s="0">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -5032,34 +5032,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>41.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
     </row>
   </sheetData>
@@ -5085,34 +5085,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="C1" t="n" s="0">
-        <v>36.0</v>
-      </c>
       <c r="D1" t="n" s="0">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>34.0</v>
+        <v>13.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -5120,34 +5120,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>39.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>15.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="G2" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>28.0</v>
-      </c>
       <c r="J2" t="n" s="0">
-        <v>80.0</v>
+        <v>11.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>53.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -5155,34 +5155,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="G3" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="D3" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="H3" t="n" s="0">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>37.0</v>
+        <v>13.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -5190,34 +5190,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>54.0</v>
+        <v>14.0</v>
       </c>
       <c r="J4" t="n" s="0">
         <v>14.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>28.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -5225,34 +5225,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>45.0</v>
+        <v>13.0</v>
       </c>
       <c r="C5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
         <v>51.0</v>
       </c>
-      <c r="D5" t="n" s="0">
-        <v>63.0</v>
-      </c>
       <c r="E5" t="n" s="0">
-        <v>46.0</v>
+        <v>9.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>79.0</v>
+        <v>16.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>51.0</v>
+        <v>12.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>57.0</v>
+        <v>25.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>52.0</v>
+        <v>19.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>44.0</v>
+        <v>12.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -5260,34 +5260,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>59.0</v>
+        <v>8.0</v>
       </c>
       <c r="C6" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="D6" t="n" s="0">
-        <v>55.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>105.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>16.0</v>
-      </c>
       <c r="I6" t="n" s="0">
-        <v>92.0</v>
+        <v>11.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>21.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -5295,34 +5295,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>42.0</v>
+        <v>6.0</v>
       </c>
       <c r="C7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
         <v>18.0</v>
       </c>
-      <c r="D7" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>31.0</v>
-      </c>
       <c r="I7" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -5330,34 +5330,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>17.0</v>
+        <v>80.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>43.0</v>
+        <v>9.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>11.0</v>
+        <v>41.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>24.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -5365,34 +5365,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>30.0</v>
+        <v>6.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>17.0</v>
+        <v>78.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>43.0</v>
+        <v>6.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>29.0</v>
+        <v>9.0</v>
       </c>
       <c r="H9" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="I9" t="n" s="0">
-        <v>14.0</v>
-      </c>
       <c r="J9" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5400,34 +5400,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>31.0</v>
+        <v>79.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>87.0</v>
+        <v>9.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>24.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -5435,34 +5435,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>17.0</v>
+        <v>32.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>42.0</v>
+        <v>28.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>27.0</v>
+        <v>6.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -5470,34 +5470,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="C12" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="E12" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="F12" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="G12" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="H12" t="n" s="0">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>70.0</v>
+        <v>16.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -5505,34 +5505,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>89.0</v>
+        <v>11.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -5540,34 +5540,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>21.0</v>
+        <v>90.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>25.0</v>
+        <v>12.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>39.0</v>
+        <v>12.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>68.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -5575,34 +5575,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>20.0</v>
+        <v>38.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>42.0</v>
+        <v>10.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>12.0</v>
+        <v>34.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>51.0</v>
+        <v>7.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>29.0</v>
+        <v>13.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>82.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -5610,34 +5610,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>21.0</v>
+        <v>52.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>17.0</v>
+        <v>42.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>26.0</v>
+        <v>10.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>60.0</v>
+        <v>11.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>66.0</v>
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -5663,34 +5663,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="C1" t="n" s="0">
-        <v>21.0</v>
-      </c>
       <c r="D1" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>47.0</v>
+        <v>11.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>13.0</v>
+        <v>32.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>40.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -5698,34 +5698,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>74.0</v>
+        <v>40.0</v>
       </c>
       <c r="F2" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="G2" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="J2" t="n" s="0">
         <v>13.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -5733,34 +5733,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
         <v>18.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="J3" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="K3" t="n" s="0">
-        <v>15.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -5768,34 +5768,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>36.0</v>
+        <v>16.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>78.0</v>
+        <v>10.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="H4" t="n" s="0">
         <v>16.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>42.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -5803,34 +5803,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>58.0</v>
+        <v>36.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>111.0</v>
+        <v>26.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>45.0</v>
+        <v>13.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>89.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>47.0</v>
+        <v>9.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>73.0</v>
+        <v>10.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>54.0</v>
+        <v>26.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>65.0</v>
+        <v>8.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>62.0</v>
+        <v>14.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>62.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -5838,34 +5838,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>35.0</v>
+        <v>8.0</v>
       </c>
       <c r="C6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="D6" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>111.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>116.0</v>
-      </c>
       <c r="J6" t="n" s="0">
-        <v>35.0</v>
+        <v>20.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>64.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -5873,34 +5873,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
         <v>18.0</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>226.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="J7" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="K7" t="n" s="0">
-        <v>20.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -5908,34 +5908,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="C8" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>187.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="I8" t="n" s="0">
-        <v>45.0</v>
+        <v>13.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>35.0</v>
+        <v>11.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -5943,34 +5943,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>56.0</v>
+        <v>10.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>37.0</v>
+        <v>8.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>26.0</v>
+        <v>16.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>13.0</v>
+        <v>45.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>70.0</v>
+        <v>6.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5978,34 +5978,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>47.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>13.0</v>
+        <v>42.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>167.0</v>
+        <v>11.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>31.0</v>
+        <v>7.0</v>
       </c>
       <c r="H10" t="n" s="0">
         <v>12.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -6013,31 +6013,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>24.0</v>
+        <v>41.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>46.0</v>
+        <v>20.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>35.0</v>
+        <v>10.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>36.0</v>
+        <v>14.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>13.0</v>
+        <v>45.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>94.0</v>
+        <v>8.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="K11" t="n" s="0">
         <v>18.0</v>
@@ -6048,34 +6048,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="D12" t="n" s="0">
         <v>17.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="G12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
         <v>26.0</v>
-      </c>
-      <c r="H12" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="I12" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="J12" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="K12" t="n" s="0">
-        <v>27.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -6083,34 +6083,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>31.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>42.0</v>
+        <v>9.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>64.0</v>
+        <v>14.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>46.0</v>
+        <v>13.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>42.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -6118,34 +6118,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="E14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
         <v>22.0</v>
       </c>
-      <c r="F14" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="G14" t="n" s="0">
-        <v>64.0</v>
-      </c>
-      <c r="H14" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="I14" t="n" s="0">
-        <v>52.0</v>
-      </c>
-      <c r="J14" t="n" s="0">
-        <v>26.0</v>
-      </c>
       <c r="K14" t="n" s="0">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -6153,34 +6153,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>33.0</v>
+        <v>9.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>68.0</v>
+        <v>88.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>42.0</v>
+        <v>8.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>160.0</v>
+        <v>12.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -6188,34 +6188,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>21.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>26.0</v>
+        <v>48.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="H16" t="n" s="0">
         <v>13.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>45.0</v>
+        <v>11.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/MultiUserIncreaseTa.xlsx
+++ b/documentation/MultiUserIncreaseTa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097E5764-665B-0447-A98B-EE13B0BAADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1970B7C-2306-4144-B5EE-6943C0380CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K16"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,153 +462,633 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>47</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>14</v>
+      </c>
+      <c r="E1">
+        <v>12</v>
+      </c>
+      <c r="F1">
+        <v>26</v>
+      </c>
+      <c r="G1">
+        <v>14</v>
+      </c>
+      <c r="H1">
+        <v>9</v>
+      </c>
+      <c r="I1">
+        <v>22</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>33</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>18.7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>81</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>32.1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>20.8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>15</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>11.3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>27</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>17.2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M20" t="s">
         <v>16</v>
       </c>
-      <c r="N20" t="e">
+      <c r="N20">
         <f>AVERAGE(L1:L16)</f>
-        <v>#DIV/0!</v>
+        <v>15.556250000000002</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +1101,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,153 +1113,633 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>1386</v>
+      </c>
+      <c r="C1">
+        <v>2758</v>
+      </c>
+      <c r="D1">
+        <v>931</v>
+      </c>
+      <c r="E1">
+        <v>2405</v>
+      </c>
+      <c r="F1">
+        <v>2399</v>
+      </c>
+      <c r="G1">
+        <v>1327</v>
+      </c>
+      <c r="H1">
+        <v>2754</v>
+      </c>
+      <c r="I1">
+        <v>616</v>
+      </c>
+      <c r="J1">
+        <v>2917</v>
+      </c>
+      <c r="K1">
+        <v>3124</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>2061.6999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>1934</v>
+      </c>
+      <c r="C2">
+        <v>1159</v>
+      </c>
+      <c r="D2">
+        <v>3166</v>
+      </c>
+      <c r="E2">
+        <v>1096</v>
+      </c>
+      <c r="F2">
+        <v>596</v>
+      </c>
+      <c r="G2">
+        <v>2356</v>
+      </c>
+      <c r="H2">
+        <v>649</v>
+      </c>
+      <c r="I2">
+        <v>3096</v>
+      </c>
+      <c r="J2">
+        <v>1115</v>
+      </c>
+      <c r="K2">
+        <v>253</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>1170</v>
+      </c>
+      <c r="C3">
+        <v>2584</v>
+      </c>
+      <c r="D3">
+        <v>477</v>
+      </c>
+      <c r="E3">
+        <v>2330</v>
+      </c>
+      <c r="F3">
+        <v>2716</v>
+      </c>
+      <c r="G3">
+        <v>1104</v>
+      </c>
+      <c r="H3">
+        <v>3234</v>
+      </c>
+      <c r="I3">
+        <v>1179</v>
+      </c>
+      <c r="J3">
+        <v>2647</v>
+      </c>
+      <c r="K3">
+        <v>3356</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>2079.6999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>1920</v>
+      </c>
+      <c r="C4">
+        <v>1275</v>
+      </c>
+      <c r="D4">
+        <v>3212</v>
+      </c>
+      <c r="E4">
+        <v>1334</v>
+      </c>
+      <c r="F4">
+        <v>980</v>
+      </c>
+      <c r="G4">
+        <v>2231</v>
+      </c>
+      <c r="H4">
+        <v>630</v>
+      </c>
+      <c r="I4">
+        <v>2113</v>
+      </c>
+      <c r="J4">
+        <v>1201</v>
+      </c>
+      <c r="K4">
+        <v>526</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1542.2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>1261</v>
+      </c>
+      <c r="C5">
+        <v>2414</v>
+      </c>
+      <c r="D5">
+        <v>494</v>
+      </c>
+      <c r="E5">
+        <v>2306</v>
+      </c>
+      <c r="F5">
+        <v>3245</v>
+      </c>
+      <c r="G5">
+        <v>1503</v>
+      </c>
+      <c r="H5">
+        <v>3231</v>
+      </c>
+      <c r="I5">
+        <v>1065</v>
+      </c>
+      <c r="J5">
+        <v>2704</v>
+      </c>
+      <c r="K5">
+        <v>3277</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2150</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1005</v>
+      </c>
+      <c r="D6">
+        <v>3657</v>
+      </c>
+      <c r="E6">
+        <v>1413</v>
+      </c>
+      <c r="F6">
+        <v>298</v>
+      </c>
+      <c r="G6">
+        <v>2184</v>
+      </c>
+      <c r="H6">
+        <v>667</v>
+      </c>
+      <c r="I6">
+        <v>3232</v>
+      </c>
+      <c r="J6">
+        <v>806</v>
+      </c>
+      <c r="K6">
+        <v>468</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1374.9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>2116</v>
+      </c>
+      <c r="C7">
+        <v>2238</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>1803</v>
+      </c>
+      <c r="F7">
+        <v>4034</v>
+      </c>
+      <c r="G7">
+        <v>1184</v>
+      </c>
+      <c r="H7">
+        <v>3123</v>
+      </c>
+      <c r="I7">
+        <v>1319</v>
+      </c>
+      <c r="J7">
+        <v>3024</v>
+      </c>
+      <c r="K7">
+        <v>3535</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2252.6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>1698</v>
+      </c>
+      <c r="C8">
+        <v>1290</v>
+      </c>
+      <c r="D8">
+        <v>3260</v>
+      </c>
+      <c r="E8">
+        <v>1508</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>2699</v>
+      </c>
+      <c r="H8">
+        <v>821</v>
+      </c>
+      <c r="I8">
+        <v>2461</v>
+      </c>
+      <c r="J8">
+        <v>1054</v>
+      </c>
+      <c r="K8">
+        <v>516</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1537.7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>1235</v>
+      </c>
+      <c r="C9">
+        <v>2045</v>
+      </c>
+      <c r="D9">
+        <v>425</v>
+      </c>
+      <c r="E9">
+        <v>1817</v>
+      </c>
+      <c r="F9">
+        <v>3237</v>
+      </c>
+      <c r="G9">
+        <v>1356</v>
+      </c>
+      <c r="H9">
+        <v>2912</v>
+      </c>
+      <c r="I9">
+        <v>1311</v>
+      </c>
+      <c r="J9">
+        <v>2923</v>
+      </c>
+      <c r="K9">
+        <v>2975</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>2023.6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>1730</v>
+      </c>
+      <c r="C10">
+        <v>885</v>
+      </c>
+      <c r="D10">
+        <v>2823</v>
+      </c>
+      <c r="E10">
+        <v>1750</v>
+      </c>
+      <c r="F10">
+        <v>199</v>
+      </c>
+      <c r="G10">
+        <v>2271</v>
+      </c>
+      <c r="H10">
+        <v>876</v>
+      </c>
+      <c r="I10">
+        <v>3199</v>
+      </c>
+      <c r="J10">
+        <v>950</v>
+      </c>
+      <c r="K10">
+        <v>487</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1517</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>1524</v>
+      </c>
+      <c r="C11">
+        <v>2412</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11">
+        <v>2045</v>
+      </c>
+      <c r="F11">
+        <v>3491</v>
+      </c>
+      <c r="G11">
+        <v>1360</v>
+      </c>
+      <c r="H11">
+        <v>2392</v>
+      </c>
+      <c r="I11">
+        <v>780</v>
+      </c>
+      <c r="J11">
+        <v>2623</v>
+      </c>
+      <c r="K11">
+        <v>3278</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>2015.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>2094</v>
+      </c>
+      <c r="C12">
+        <v>1114</v>
+      </c>
+      <c r="D12">
+        <v>3095</v>
+      </c>
+      <c r="E12">
+        <v>1659</v>
+      </c>
+      <c r="F12">
+        <v>281</v>
+      </c>
+      <c r="G12">
+        <v>2867</v>
+      </c>
+      <c r="H12">
+        <v>983</v>
+      </c>
+      <c r="I12">
+        <v>2483</v>
+      </c>
+      <c r="J12">
+        <v>1086</v>
+      </c>
+      <c r="K12">
+        <v>189</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1585.1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>1432</v>
+      </c>
+      <c r="C13">
+        <v>2392</v>
+      </c>
+      <c r="D13">
+        <v>176</v>
+      </c>
+      <c r="E13">
+        <v>1736</v>
+      </c>
+      <c r="F13">
+        <v>2940</v>
+      </c>
+      <c r="G13">
+        <v>1506</v>
+      </c>
+      <c r="H13">
+        <v>2808</v>
+      </c>
+      <c r="I13">
+        <v>987</v>
+      </c>
+      <c r="J13">
+        <v>2188</v>
+      </c>
+      <c r="K13">
+        <v>3159</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1932.4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>2122</v>
+      </c>
+      <c r="C14">
+        <v>1480</v>
+      </c>
+      <c r="D14">
+        <v>3246</v>
+      </c>
+      <c r="E14">
+        <v>2334</v>
+      </c>
+      <c r="F14">
+        <v>151</v>
+      </c>
+      <c r="G14">
+        <v>1889</v>
+      </c>
+      <c r="H14">
+        <v>739</v>
+      </c>
+      <c r="I14">
+        <v>2812</v>
+      </c>
+      <c r="J14">
+        <v>1977</v>
+      </c>
+      <c r="K14">
+        <v>512</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1726.2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>1279</v>
+      </c>
+      <c r="C15">
+        <v>2725</v>
+      </c>
+      <c r="D15">
+        <v>174</v>
+      </c>
+      <c r="E15">
+        <v>1549</v>
+      </c>
+      <c r="F15">
+        <v>2964</v>
+      </c>
+      <c r="G15">
+        <v>1530</v>
+      </c>
+      <c r="H15">
+        <v>2909</v>
+      </c>
+      <c r="I15">
+        <v>810</v>
+      </c>
+      <c r="J15">
+        <v>2056</v>
+      </c>
+      <c r="K15">
+        <v>3387</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1938.3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>2221</v>
+      </c>
+      <c r="C16">
+        <v>2323</v>
+      </c>
+      <c r="D16">
+        <v>3721</v>
+      </c>
+      <c r="E16">
+        <v>2481</v>
+      </c>
+      <c r="F16">
+        <v>121</v>
+      </c>
+      <c r="G16">
+        <v>1860</v>
+      </c>
+      <c r="H16">
+        <v>636</v>
+      </c>
+      <c r="I16">
+        <v>2769</v>
+      </c>
+      <c r="J16">
+        <v>1617</v>
+      </c>
+      <c r="K16">
+        <v>334</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1808.3</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M21" t="s">
         <v>16</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21">
         <f>AVERAGE(L1:L16)</f>
-        <v>#DIV/0!</v>
+        <v>1817.9499999999998</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +1752,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K16"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,153 +1764,633 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>83</v>
+      </c>
+      <c r="C1">
+        <v>19</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>42</v>
+      </c>
+      <c r="G1">
+        <v>9</v>
+      </c>
+      <c r="H1">
+        <v>46</v>
+      </c>
+      <c r="I1">
+        <v>35</v>
+      </c>
+      <c r="J1">
+        <v>14</v>
+      </c>
+      <c r="K1">
+        <v>16</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <v>58</v>
+      </c>
+      <c r="I2">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>72</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>23.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>78</v>
+      </c>
+      <c r="K5">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>73</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>62</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>63</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>27.1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>48</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>145</v>
+      </c>
+      <c r="K10">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>34.1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>44</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>27.6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>87</v>
+      </c>
+      <c r="D12">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>72</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>88</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>35.6</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>98</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>90</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>75</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>14</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>28.4</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>64</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>22.4</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>19</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>55</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>19.3</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M21" t="s">
         <v>16</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21">
         <f>AVERAGE(L1:L16)</f>
-        <v>#DIV/0!</v>
+        <v>26.900000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +2403,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K16"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,153 +2415,633 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>40</v>
+      </c>
+      <c r="C1">
+        <v>167</v>
+      </c>
+      <c r="D1">
+        <v>18</v>
+      </c>
+      <c r="E1">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>80</v>
+      </c>
+      <c r="H1">
+        <v>49</v>
+      </c>
+      <c r="I1">
+        <v>128</v>
+      </c>
+      <c r="J1">
+        <v>37</v>
+      </c>
+      <c r="K1">
+        <v>30</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>71</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>64</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>63</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(B2:K2)</f>
+        <v>31.9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>113</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>66</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L2:L16" si="0">AVERAGE(B3:K3)</f>
+        <v>34.6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>149</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>65</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>48</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>65</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>43.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>132</v>
+      </c>
+      <c r="D5">
+        <v>134</v>
+      </c>
+      <c r="E5">
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <v>49</v>
+      </c>
+      <c r="G5">
+        <v>105</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>242</v>
+      </c>
+      <c r="K5">
+        <v>199</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>106.9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>202</v>
+      </c>
+      <c r="E6">
+        <v>58</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>27</v>
+      </c>
+      <c r="J6">
+        <v>130</v>
+      </c>
+      <c r="K6">
+        <v>127</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>66.3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>81</v>
+      </c>
+      <c r="C7">
+        <v>179</v>
+      </c>
+      <c r="D7">
+        <v>215</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>123</v>
+      </c>
+      <c r="G7">
+        <v>132</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>75</v>
+      </c>
+      <c r="J7">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>117</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>102.4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>72</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>23</v>
+      </c>
+      <c r="K8">
+        <v>36</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>323</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>108</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>74</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>117</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>94.4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>152</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <v>113</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>52.6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>57</v>
+      </c>
+      <c r="F11">
+        <v>92</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>83</v>
+      </c>
+      <c r="I11">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>117</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>61.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>158</v>
+      </c>
+      <c r="H12">
+        <v>151</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>74</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>272</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>102</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>103</v>
+      </c>
+      <c r="K13">
+        <v>83</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>127</v>
+      </c>
+      <c r="H14">
+        <v>26</v>
+      </c>
+      <c r="I14">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>178</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>69.2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>97</v>
+      </c>
+      <c r="F15">
+        <v>140</v>
+      </c>
+      <c r="G15">
+        <v>123</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <v>112</v>
+      </c>
+      <c r="K15">
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>219</v>
+      </c>
+      <c r="F16">
+        <v>114</v>
+      </c>
+      <c r="G16">
+        <v>79</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>59</v>
+      </c>
+      <c r="K16">
+        <v>176</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
         <v>16</v>
       </c>
-      <c r="M20" t="e">
+      <c r="M20">
         <f>AVERAGE(L1:L16)</f>
-        <v>#DIV/0!</v>
+        <v>63.693750000000009</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +3054,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K16"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1146,153 +3066,633 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>178</v>
+      </c>
+      <c r="C1">
+        <v>72</v>
+      </c>
+      <c r="D1">
+        <v>206</v>
+      </c>
+      <c r="E1">
+        <v>107</v>
+      </c>
+      <c r="F1">
+        <v>366</v>
+      </c>
+      <c r="G1">
+        <v>149</v>
+      </c>
+      <c r="H1">
+        <v>35</v>
+      </c>
+      <c r="I1">
+        <v>278</v>
+      </c>
+      <c r="J1">
+        <v>203</v>
+      </c>
+      <c r="K1">
+        <v>120</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>171.4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>223</v>
+      </c>
+      <c r="C2">
+        <v>265</v>
+      </c>
+      <c r="D2">
+        <v>115</v>
+      </c>
+      <c r="E2">
+        <v>204</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>312</v>
+      </c>
+      <c r="I2">
+        <v>304</v>
+      </c>
+      <c r="J2">
+        <v>165</v>
+      </c>
+      <c r="K2">
+        <v>128</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L15" si="0">AVERAGE(B2:K2)</f>
+        <v>178.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>308</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>89</v>
+      </c>
+      <c r="E3">
+        <v>266</v>
+      </c>
+      <c r="F3">
+        <v>335</v>
+      </c>
+      <c r="G3">
+        <v>460</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>135</v>
+      </c>
+      <c r="J3">
+        <v>360</v>
+      </c>
+      <c r="K3">
+        <v>87</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>210.3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>122</v>
+      </c>
+      <c r="C4">
+        <v>222</v>
+      </c>
+      <c r="D4">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>236</v>
+      </c>
+      <c r="F4">
+        <v>121</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>338</v>
+      </c>
+      <c r="I4">
+        <v>331</v>
+      </c>
+      <c r="J4">
+        <v>75</v>
+      </c>
+      <c r="K4">
+        <v>220</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>177.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>272</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>114</v>
+      </c>
+      <c r="E5">
+        <v>119</v>
+      </c>
+      <c r="F5">
+        <v>198</v>
+      </c>
+      <c r="G5">
+        <v>370</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>151</v>
+      </c>
+      <c r="J5">
+        <v>248</v>
+      </c>
+      <c r="K5">
+        <v>74</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>161.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>98</v>
+      </c>
+      <c r="C6">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>235</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>131</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>220</v>
+      </c>
+      <c r="I6">
+        <v>54</v>
+      </c>
+      <c r="J6">
+        <v>118</v>
+      </c>
+      <c r="K6">
+        <v>284</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>127.2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>184</v>
+      </c>
+      <c r="C7">
+        <v>169</v>
+      </c>
+      <c r="D7">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>97</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7">
+        <v>452</v>
+      </c>
+      <c r="H7">
+        <v>71</v>
+      </c>
+      <c r="I7">
+        <v>226</v>
+      </c>
+      <c r="J7">
+        <v>422</v>
+      </c>
+      <c r="K7">
+        <v>109</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>230.1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>382</v>
+      </c>
+      <c r="E8">
+        <v>71</v>
+      </c>
+      <c r="F8">
+        <v>152</v>
+      </c>
+      <c r="G8">
+        <v>74</v>
+      </c>
+      <c r="H8">
+        <v>138</v>
+      </c>
+      <c r="I8">
+        <v>327</v>
+      </c>
+      <c r="J8">
+        <v>144</v>
+      </c>
+      <c r="K8">
+        <v>68</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>150.6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>227</v>
+      </c>
+      <c r="C9">
+        <v>363</v>
+      </c>
+      <c r="D9">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>229</v>
+      </c>
+      <c r="F9">
+        <v>282</v>
+      </c>
+      <c r="G9">
+        <v>323</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>116</v>
+      </c>
+      <c r="J9">
+        <v>146</v>
+      </c>
+      <c r="K9">
+        <v>103</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>203</v>
+      </c>
+      <c r="E10">
+        <v>299</v>
+      </c>
+      <c r="F10">
+        <v>129</v>
+      </c>
+      <c r="G10">
+        <v>337</v>
+      </c>
+      <c r="H10">
+        <v>651</v>
+      </c>
+      <c r="I10">
+        <v>357</v>
+      </c>
+      <c r="J10">
+        <v>139</v>
+      </c>
+      <c r="K10">
+        <v>72</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>228.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>243</v>
+      </c>
+      <c r="C11">
+        <v>337</v>
+      </c>
+      <c r="D11">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>324</v>
+      </c>
+      <c r="F11">
+        <v>360</v>
+      </c>
+      <c r="G11">
+        <v>514</v>
+      </c>
+      <c r="H11">
+        <v>61</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>163</v>
+      </c>
+      <c r="K11">
+        <v>150</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>221.9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>289</v>
+      </c>
+      <c r="E12">
+        <v>141</v>
+      </c>
+      <c r="F12">
+        <v>123</v>
+      </c>
+      <c r="G12">
+        <v>111</v>
+      </c>
+      <c r="H12">
+        <v>207</v>
+      </c>
+      <c r="I12">
+        <v>340</v>
+      </c>
+      <c r="J12">
+        <v>225</v>
+      </c>
+      <c r="K12">
+        <v>206</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>174.6</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>137</v>
+      </c>
+      <c r="C13">
+        <v>158</v>
+      </c>
+      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>385</v>
+      </c>
+      <c r="F13">
+        <v>195</v>
+      </c>
+      <c r="G13">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>430</v>
+      </c>
+      <c r="J13">
+        <v>117</v>
+      </c>
+      <c r="K13">
+        <v>112</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>163.69999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>109</v>
+      </c>
+      <c r="C14">
+        <v>191</v>
+      </c>
+      <c r="D14">
+        <v>467</v>
+      </c>
+      <c r="E14">
+        <v>225</v>
+      </c>
+      <c r="F14">
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <v>82</v>
+      </c>
+      <c r="H14">
+        <v>276</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>247</v>
+      </c>
+      <c r="K14">
+        <v>161</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>182.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>138</v>
+      </c>
+      <c r="C15">
+        <v>328</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>201</v>
+      </c>
+      <c r="F15">
+        <v>157</v>
+      </c>
+      <c r="G15">
+        <v>74</v>
+      </c>
+      <c r="H15">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>331</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>59</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>138.6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>330</v>
+      </c>
+      <c r="E16">
+        <v>255</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>116</v>
+      </c>
+      <c r="H16">
+        <v>338</v>
+      </c>
+      <c r="I16">
+        <v>228</v>
+      </c>
+      <c r="J16">
+        <v>69</v>
+      </c>
+      <c r="K16">
+        <v>46</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGE(B16:K16)</f>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M20" t="s">
         <v>16</v>
       </c>
-      <c r="N20" t="e">
+      <c r="N20">
         <f>AVERAGE(L1:L17)</f>
-        <v>#DIV/0!</v>
+        <v>179.54374999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +3705,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K16"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1317,153 +3717,633 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>13</v>
+      </c>
+      <c r="C1">
+        <v>148</v>
+      </c>
+      <c r="D1">
+        <v>60</v>
+      </c>
+      <c r="E1">
+        <v>253</v>
+      </c>
+      <c r="F1">
+        <v>185</v>
+      </c>
+      <c r="G1">
+        <v>334</v>
+      </c>
+      <c r="H1">
+        <v>43</v>
+      </c>
+      <c r="I1">
+        <v>158</v>
+      </c>
+      <c r="J1">
+        <v>335</v>
+      </c>
+      <c r="K1">
+        <v>537</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>206.6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>753</v>
+      </c>
+      <c r="C2">
+        <v>596</v>
+      </c>
+      <c r="D2">
+        <v>783</v>
+      </c>
+      <c r="E2">
+        <v>251</v>
+      </c>
+      <c r="F2">
+        <v>656</v>
+      </c>
+      <c r="G2">
+        <v>234</v>
+      </c>
+      <c r="H2">
+        <v>612</v>
+      </c>
+      <c r="I2">
+        <v>504</v>
+      </c>
+      <c r="J2">
+        <v>344</v>
+      </c>
+      <c r="K2">
+        <v>273</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>500.6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>719</v>
+      </c>
+      <c r="C3">
+        <v>178</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>607</v>
+      </c>
+      <c r="F3">
+        <v>115</v>
+      </c>
+      <c r="G3">
+        <v>616</v>
+      </c>
+      <c r="H3">
+        <v>69</v>
+      </c>
+      <c r="I3">
+        <v>245</v>
+      </c>
+      <c r="J3">
+        <v>426</v>
+      </c>
+      <c r="K3">
+        <v>380</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>698</v>
+      </c>
+      <c r="C4">
+        <v>795</v>
+      </c>
+      <c r="D4">
+        <v>779</v>
+      </c>
+      <c r="E4">
+        <v>257</v>
+      </c>
+      <c r="F4">
+        <v>834</v>
+      </c>
+      <c r="G4">
+        <v>328</v>
+      </c>
+      <c r="H4">
+        <v>712</v>
+      </c>
+      <c r="I4">
+        <v>521</v>
+      </c>
+      <c r="J4">
+        <v>425</v>
+      </c>
+      <c r="K4">
+        <v>414</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>576.29999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>707</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>508</v>
+      </c>
+      <c r="F5">
+        <v>675</v>
+      </c>
+      <c r="G5">
+        <v>595</v>
+      </c>
+      <c r="H5">
+        <v>70</v>
+      </c>
+      <c r="I5">
+        <v>345</v>
+      </c>
+      <c r="J5">
+        <v>389</v>
+      </c>
+      <c r="K5">
+        <v>345</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>375.7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>828</v>
+      </c>
+      <c r="C6">
+        <v>558</v>
+      </c>
+      <c r="D6">
+        <v>579</v>
+      </c>
+      <c r="E6">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>697</v>
+      </c>
+      <c r="G6">
+        <v>252</v>
+      </c>
+      <c r="H6">
+        <v>645</v>
+      </c>
+      <c r="I6">
+        <v>386</v>
+      </c>
+      <c r="J6">
+        <v>516</v>
+      </c>
+      <c r="K6">
+        <v>469</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>500.2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>583</v>
+      </c>
+      <c r="C7">
+        <v>187</v>
+      </c>
+      <c r="D7">
+        <v>140</v>
+      </c>
+      <c r="E7">
+        <v>602</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>409</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>308</v>
+      </c>
+      <c r="J7">
+        <v>196</v>
+      </c>
+      <c r="K7">
+        <v>246</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>269.10000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>964</v>
+      </c>
+      <c r="C8">
+        <v>432</v>
+      </c>
+      <c r="D8">
+        <v>251</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>747</v>
+      </c>
+      <c r="G8">
+        <v>238</v>
+      </c>
+      <c r="H8">
+        <v>845</v>
+      </c>
+      <c r="I8">
+        <v>367</v>
+      </c>
+      <c r="J8">
+        <v>639</v>
+      </c>
+      <c r="K8">
+        <v>431</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>492.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>680</v>
+      </c>
+      <c r="C9">
+        <v>318</v>
+      </c>
+      <c r="D9">
+        <v>366</v>
+      </c>
+      <c r="E9">
+        <v>564</v>
+      </c>
+      <c r="F9">
+        <v>91</v>
+      </c>
+      <c r="G9">
+        <v>396</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>141</v>
+      </c>
+      <c r="J9">
+        <v>147</v>
+      </c>
+      <c r="K9">
+        <v>295</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>593</v>
+      </c>
+      <c r="C10">
+        <v>502</v>
+      </c>
+      <c r="D10">
+        <v>226</v>
+      </c>
+      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>610</v>
+      </c>
+      <c r="G10">
+        <v>253</v>
+      </c>
+      <c r="H10">
+        <v>776</v>
+      </c>
+      <c r="I10">
+        <v>656</v>
+      </c>
+      <c r="J10">
+        <v>549</v>
+      </c>
+      <c r="K10">
+        <v>662</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>538</v>
+      </c>
+      <c r="C11">
+        <v>233</v>
+      </c>
+      <c r="D11">
+        <v>513</v>
+      </c>
+      <c r="E11">
+        <v>602</v>
+      </c>
+      <c r="F11">
+        <v>282</v>
+      </c>
+      <c r="G11">
+        <v>418</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>65</v>
+      </c>
+      <c r="J11">
+        <v>56</v>
+      </c>
+      <c r="K11">
+        <v>144</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>285.8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>550</v>
+      </c>
+      <c r="C12">
+        <v>522</v>
+      </c>
+      <c r="D12">
+        <v>234</v>
+      </c>
+      <c r="E12">
+        <v>57</v>
+      </c>
+      <c r="F12">
+        <v>472</v>
+      </c>
+      <c r="G12">
+        <v>333</v>
+      </c>
+      <c r="H12">
+        <v>596</v>
+      </c>
+      <c r="I12">
+        <v>713</v>
+      </c>
+      <c r="J12">
+        <v>563</v>
+      </c>
+      <c r="K12">
+        <v>602</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>464.2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>405</v>
+      </c>
+      <c r="C13">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>364</v>
+      </c>
+      <c r="E13">
+        <v>667</v>
+      </c>
+      <c r="F13">
+        <v>450</v>
+      </c>
+      <c r="G13">
+        <v>411</v>
+      </c>
+      <c r="H13">
+        <v>65</v>
+      </c>
+      <c r="I13">
+        <v>62</v>
+      </c>
+      <c r="J13">
+        <v>893</v>
+      </c>
+      <c r="K13">
+        <v>143</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>357.6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>509</v>
+      </c>
+      <c r="C14">
+        <v>752</v>
+      </c>
+      <c r="D14">
+        <v>433</v>
+      </c>
+      <c r="E14">
+        <v>49</v>
+      </c>
+      <c r="F14">
+        <v>413</v>
+      </c>
+      <c r="G14">
+        <v>411</v>
+      </c>
+      <c r="H14">
+        <v>722</v>
+      </c>
+      <c r="I14">
+        <v>549</v>
+      </c>
+      <c r="J14">
+        <v>890</v>
+      </c>
+      <c r="K14">
+        <v>651</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>537.9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>830</v>
+      </c>
+      <c r="C15">
+        <v>194</v>
+      </c>
+      <c r="D15">
+        <v>271</v>
+      </c>
+      <c r="E15">
+        <v>608</v>
+      </c>
+      <c r="F15">
+        <v>350</v>
+      </c>
+      <c r="G15">
+        <v>422</v>
+      </c>
+      <c r="H15">
+        <v>181</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>178</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>305.89999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>575</v>
+      </c>
+      <c r="D16">
+        <v>384</v>
+      </c>
+      <c r="E16">
+        <v>108</v>
+      </c>
+      <c r="F16">
+        <v>207</v>
+      </c>
+      <c r="G16">
+        <v>264</v>
+      </c>
+      <c r="H16">
+        <v>508</v>
+      </c>
+      <c r="I16">
+        <v>660</v>
+      </c>
+      <c r="J16">
+        <v>777</v>
+      </c>
+      <c r="K16">
+        <v>540</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>405.9</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M22" t="s">
         <v>16</v>
       </c>
-      <c r="N22" t="e">
+      <c r="N22">
         <f>AVERAGE(L1:L16)</f>
-        <v>#DIV/0!</v>
+        <v>400.19999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +4356,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K16"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1488,153 +4368,633 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>1056</v>
+      </c>
+      <c r="C1">
+        <v>432</v>
+      </c>
+      <c r="D1">
+        <v>488</v>
+      </c>
+      <c r="E1">
+        <v>807</v>
+      </c>
+      <c r="F1">
+        <v>25</v>
+      </c>
+      <c r="G1">
+        <v>683</v>
+      </c>
+      <c r="H1">
+        <v>118</v>
+      </c>
+      <c r="I1">
+        <v>257</v>
+      </c>
+      <c r="J1">
+        <v>405</v>
+      </c>
+      <c r="K1">
+        <v>150</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>442.1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>110</v>
+      </c>
+      <c r="C2">
+        <v>952</v>
+      </c>
+      <c r="D2">
+        <v>629</v>
+      </c>
+      <c r="E2">
+        <v>209</v>
+      </c>
+      <c r="F2">
+        <v>1326</v>
+      </c>
+      <c r="G2">
+        <v>337</v>
+      </c>
+      <c r="H2">
+        <v>824</v>
+      </c>
+      <c r="I2">
+        <v>697</v>
+      </c>
+      <c r="J2">
+        <v>644</v>
+      </c>
+      <c r="K2">
+        <v>671</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>639.9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>792</v>
+      </c>
+      <c r="C3">
+        <v>245</v>
+      </c>
+      <c r="D3">
+        <v>213</v>
+      </c>
+      <c r="E3">
+        <v>649</v>
+      </c>
+      <c r="F3">
+        <v>108</v>
+      </c>
+      <c r="G3">
+        <v>846</v>
+      </c>
+      <c r="H3">
+        <v>109</v>
+      </c>
+      <c r="I3">
+        <v>212</v>
+      </c>
+      <c r="J3">
+        <v>428</v>
+      </c>
+      <c r="K3">
+        <v>383</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>398.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>137</v>
+      </c>
+      <c r="C4">
+        <v>849</v>
+      </c>
+      <c r="D4">
+        <v>555</v>
+      </c>
+      <c r="E4">
+        <v>216</v>
+      </c>
+      <c r="F4">
+        <v>918</v>
+      </c>
+      <c r="G4">
+        <v>74</v>
+      </c>
+      <c r="H4">
+        <v>1062</v>
+      </c>
+      <c r="I4">
+        <v>896</v>
+      </c>
+      <c r="J4">
+        <v>756</v>
+      </c>
+      <c r="K4">
+        <v>453</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>591.6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>1127</v>
+      </c>
+      <c r="C5">
+        <v>223</v>
+      </c>
+      <c r="D5">
+        <v>138</v>
+      </c>
+      <c r="E5">
+        <v>828</v>
+      </c>
+      <c r="F5">
+        <v>193</v>
+      </c>
+      <c r="G5">
+        <v>1070</v>
+      </c>
+      <c r="H5">
+        <v>110</v>
+      </c>
+      <c r="I5">
+        <v>187</v>
+      </c>
+      <c r="J5">
+        <v>387</v>
+      </c>
+      <c r="K5">
+        <v>467</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>223</v>
+      </c>
+      <c r="C6">
+        <v>940</v>
+      </c>
+      <c r="D6">
+        <v>783</v>
+      </c>
+      <c r="E6">
+        <v>281</v>
+      </c>
+      <c r="F6">
+        <v>840</v>
+      </c>
+      <c r="G6">
+        <v>1323</v>
+      </c>
+      <c r="H6">
+        <v>994</v>
+      </c>
+      <c r="I6">
+        <v>703</v>
+      </c>
+      <c r="J6">
+        <v>712</v>
+      </c>
+      <c r="K6">
+        <v>543</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>734.2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>876</v>
+      </c>
+      <c r="C7">
+        <v>325</v>
+      </c>
+      <c r="D7">
+        <v>203</v>
+      </c>
+      <c r="E7">
+        <v>970</v>
+      </c>
+      <c r="F7">
+        <v>254</v>
+      </c>
+      <c r="G7">
+        <v>1130</v>
+      </c>
+      <c r="H7">
+        <v>181</v>
+      </c>
+      <c r="I7">
+        <v>291</v>
+      </c>
+      <c r="J7">
+        <v>517</v>
+      </c>
+      <c r="K7">
+        <v>648</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>539.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>248</v>
+      </c>
+      <c r="C8">
+        <v>946</v>
+      </c>
+      <c r="D8">
+        <v>750</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>821</v>
+      </c>
+      <c r="G8">
+        <v>878</v>
+      </c>
+      <c r="H8">
+        <v>812</v>
+      </c>
+      <c r="I8">
+        <v>814</v>
+      </c>
+      <c r="J8">
+        <v>498</v>
+      </c>
+      <c r="K8">
+        <v>657</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>655.20000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>904</v>
+      </c>
+      <c r="C9">
+        <v>843</v>
+      </c>
+      <c r="D9">
+        <v>146</v>
+      </c>
+      <c r="E9">
+        <v>1061</v>
+      </c>
+      <c r="F9">
+        <v>571</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>89</v>
+      </c>
+      <c r="I9">
+        <v>288</v>
+      </c>
+      <c r="J9">
+        <v>831</v>
+      </c>
+      <c r="K9">
+        <v>510</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>525.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>122</v>
+      </c>
+      <c r="C10">
+        <v>671</v>
+      </c>
+      <c r="D10">
+        <v>1019</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>691</v>
+      </c>
+      <c r="G10">
+        <v>1080</v>
+      </c>
+      <c r="H10">
+        <v>866</v>
+      </c>
+      <c r="I10">
+        <v>848</v>
+      </c>
+      <c r="J10">
+        <v>262</v>
+      </c>
+      <c r="K10">
+        <v>538</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>611.79999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>1089</v>
+      </c>
+      <c r="C11">
+        <v>257</v>
+      </c>
+      <c r="D11">
+        <v>314</v>
+      </c>
+      <c r="E11">
+        <v>1033</v>
+      </c>
+      <c r="F11">
+        <v>521</v>
+      </c>
+      <c r="G11">
+        <v>927</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>161</v>
+      </c>
+      <c r="J11">
+        <v>623</v>
+      </c>
+      <c r="K11">
+        <v>494</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>227</v>
+      </c>
+      <c r="C12">
+        <v>708</v>
+      </c>
+      <c r="D12">
+        <v>593</v>
+      </c>
+      <c r="E12">
+        <v>1205</v>
+      </c>
+      <c r="F12">
+        <v>614</v>
+      </c>
+      <c r="G12">
+        <v>968</v>
+      </c>
+      <c r="H12">
+        <v>1162</v>
+      </c>
+      <c r="I12">
+        <v>1034</v>
+      </c>
+      <c r="J12">
+        <v>238</v>
+      </c>
+      <c r="K12">
+        <v>454</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>720.3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>865</v>
+      </c>
+      <c r="C13">
+        <v>107</v>
+      </c>
+      <c r="D13">
+        <v>468</v>
+      </c>
+      <c r="E13">
+        <v>1326</v>
+      </c>
+      <c r="F13">
+        <v>469</v>
+      </c>
+      <c r="G13">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <v>65</v>
+      </c>
+      <c r="J13">
+        <v>697</v>
+      </c>
+      <c r="K13">
+        <v>496</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>455.9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>167</v>
+      </c>
+      <c r="C14">
+        <v>1089</v>
+      </c>
+      <c r="D14">
+        <v>368</v>
+      </c>
+      <c r="E14">
+        <v>1445</v>
+      </c>
+      <c r="F14">
+        <v>578</v>
+      </c>
+      <c r="G14">
+        <v>1110</v>
+      </c>
+      <c r="H14">
+        <v>969</v>
+      </c>
+      <c r="I14">
+        <v>877</v>
+      </c>
+      <c r="J14">
+        <v>292</v>
+      </c>
+      <c r="K14">
+        <v>464</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>735.9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>943</v>
+      </c>
+      <c r="C15">
+        <v>138</v>
+      </c>
+      <c r="D15">
+        <v>451</v>
+      </c>
+      <c r="E15">
+        <v>904</v>
+      </c>
+      <c r="F15">
+        <v>540</v>
+      </c>
+      <c r="G15">
+        <v>68</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>1118</v>
+      </c>
+      <c r="K15">
+        <v>802</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>500.6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>647</v>
+      </c>
+      <c r="D16">
+        <v>506</v>
+      </c>
+      <c r="E16">
+        <v>1316</v>
+      </c>
+      <c r="F16">
+        <v>254</v>
+      </c>
+      <c r="G16">
+        <v>821</v>
+      </c>
+      <c r="H16">
+        <v>1129</v>
+      </c>
+      <c r="I16">
+        <v>1071</v>
+      </c>
+      <c r="J16">
+        <v>191</v>
+      </c>
+      <c r="K16">
+        <v>365</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>637.70000000000005</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M21" t="s">
         <v>16</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21">
         <f>AVERAGE(L1:L16)</f>
-        <v>#DIV/0!</v>
+        <v>575.29375000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +5007,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:K16"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1659,153 +5019,633 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>1568</v>
+      </c>
+      <c r="C1">
+        <v>948</v>
+      </c>
+      <c r="D1">
+        <v>339</v>
+      </c>
+      <c r="E1">
+        <v>375</v>
+      </c>
+      <c r="F1">
+        <v>1447</v>
+      </c>
+      <c r="G1">
+        <v>511</v>
+      </c>
+      <c r="H1">
+        <v>923</v>
+      </c>
+      <c r="I1">
+        <v>545</v>
+      </c>
+      <c r="J1">
+        <v>87</v>
+      </c>
+      <c r="K1">
+        <v>1811</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>855.4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>112</v>
+      </c>
+      <c r="C2">
+        <v>505</v>
+      </c>
+      <c r="D2">
+        <v>1181</v>
+      </c>
+      <c r="E2">
+        <v>1086</v>
+      </c>
+      <c r="F2">
+        <v>147</v>
+      </c>
+      <c r="G2">
+        <v>1200</v>
+      </c>
+      <c r="H2">
+        <v>872</v>
+      </c>
+      <c r="I2">
+        <v>1112</v>
+      </c>
+      <c r="J2">
+        <v>1400</v>
+      </c>
+      <c r="K2">
+        <v>282</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>789.7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>1479</v>
+      </c>
+      <c r="C3">
+        <v>1332</v>
+      </c>
+      <c r="D3">
+        <v>348</v>
+      </c>
+      <c r="E3">
+        <v>288</v>
+      </c>
+      <c r="F3">
+        <v>1456</v>
+      </c>
+      <c r="G3">
+        <v>432</v>
+      </c>
+      <c r="H3">
+        <v>718</v>
+      </c>
+      <c r="I3">
+        <v>247</v>
+      </c>
+      <c r="J3">
+        <v>157</v>
+      </c>
+      <c r="K3">
+        <v>1297</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>775.4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>155</v>
+      </c>
+      <c r="C4">
+        <v>288</v>
+      </c>
+      <c r="D4">
+        <v>1303</v>
+      </c>
+      <c r="E4">
+        <v>1255</v>
+      </c>
+      <c r="F4">
+        <v>285</v>
+      </c>
+      <c r="G4">
+        <v>1068</v>
+      </c>
+      <c r="H4">
+        <v>998</v>
+      </c>
+      <c r="I4">
+        <v>1465</v>
+      </c>
+      <c r="J4">
+        <v>1290</v>
+      </c>
+      <c r="K4">
+        <v>205</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>831.2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>1203</v>
+      </c>
+      <c r="C5">
+        <v>1138</v>
+      </c>
+      <c r="D5">
+        <v>390</v>
+      </c>
+      <c r="E5">
+        <v>293</v>
+      </c>
+      <c r="F5">
+        <v>947</v>
+      </c>
+      <c r="G5">
+        <v>371</v>
+      </c>
+      <c r="H5">
+        <v>502</v>
+      </c>
+      <c r="I5">
+        <v>278</v>
+      </c>
+      <c r="J5">
+        <v>223</v>
+      </c>
+      <c r="K5">
+        <v>1289</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>663.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>139</v>
+      </c>
+      <c r="C6">
+        <v>156</v>
+      </c>
+      <c r="D6">
+        <v>1330</v>
+      </c>
+      <c r="E6">
+        <v>1363</v>
+      </c>
+      <c r="F6">
+        <v>397</v>
+      </c>
+      <c r="G6">
+        <v>1176</v>
+      </c>
+      <c r="H6">
+        <v>868</v>
+      </c>
+      <c r="I6">
+        <v>982</v>
+      </c>
+      <c r="J6">
+        <v>1447</v>
+      </c>
+      <c r="K6">
+        <v>246</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>810.4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>1424</v>
+      </c>
+      <c r="C7">
+        <v>1366</v>
+      </c>
+      <c r="D7">
+        <v>142</v>
+      </c>
+      <c r="E7">
+        <v>378</v>
+      </c>
+      <c r="F7">
+        <v>1023</v>
+      </c>
+      <c r="G7">
+        <v>407</v>
+      </c>
+      <c r="H7">
+        <v>497</v>
+      </c>
+      <c r="I7">
+        <v>382</v>
+      </c>
+      <c r="J7">
+        <v>467</v>
+      </c>
+      <c r="K7">
+        <v>1354</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>141</v>
+      </c>
+      <c r="D8">
+        <v>1582</v>
+      </c>
+      <c r="E8">
+        <v>1176</v>
+      </c>
+      <c r="F8">
+        <v>286</v>
+      </c>
+      <c r="G8">
+        <v>821</v>
+      </c>
+      <c r="H8">
+        <v>1040</v>
+      </c>
+      <c r="I8">
+        <v>899</v>
+      </c>
+      <c r="J8">
+        <v>1595</v>
+      </c>
+      <c r="K8">
+        <v>474</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>808.3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>1648</v>
+      </c>
+      <c r="C9">
+        <v>1307</v>
+      </c>
+      <c r="D9">
+        <v>1346</v>
+      </c>
+      <c r="E9">
+        <v>360</v>
+      </c>
+      <c r="F9">
+        <v>818</v>
+      </c>
+      <c r="G9">
+        <v>530</v>
+      </c>
+      <c r="H9">
+        <v>270</v>
+      </c>
+      <c r="I9">
+        <v>595</v>
+      </c>
+      <c r="J9">
+        <v>141</v>
+      </c>
+      <c r="K9">
+        <v>1407</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>842.2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>267</v>
+      </c>
+      <c r="D10">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>1093</v>
+      </c>
+      <c r="F10">
+        <v>666</v>
+      </c>
+      <c r="G10">
+        <v>1096</v>
+      </c>
+      <c r="H10">
+        <v>1168</v>
+      </c>
+      <c r="I10">
+        <v>825</v>
+      </c>
+      <c r="J10">
+        <v>1554</v>
+      </c>
+      <c r="K10">
+        <v>347</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>712.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>1367</v>
+      </c>
+      <c r="C11">
+        <v>1281</v>
+      </c>
+      <c r="D11">
+        <v>1339</v>
+      </c>
+      <c r="E11">
+        <v>301</v>
+      </c>
+      <c r="F11">
+        <v>1069</v>
+      </c>
+      <c r="G11">
+        <v>577</v>
+      </c>
+      <c r="H11">
+        <v>284</v>
+      </c>
+      <c r="I11">
+        <v>727</v>
+      </c>
+      <c r="J11">
+        <v>140</v>
+      </c>
+      <c r="K11">
+        <v>1192</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>827.7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>396</v>
+      </c>
+      <c r="D12">
+        <v>257</v>
+      </c>
+      <c r="E12">
+        <v>1033</v>
+      </c>
+      <c r="F12">
+        <v>400</v>
+      </c>
+      <c r="G12">
+        <v>851</v>
+      </c>
+      <c r="H12">
+        <v>955</v>
+      </c>
+      <c r="I12">
+        <v>707</v>
+      </c>
+      <c r="J12">
+        <v>1208</v>
+      </c>
+      <c r="K12">
+        <v>162</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>605.6</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>1369</v>
+      </c>
+      <c r="C13">
+        <v>1055</v>
+      </c>
+      <c r="D13">
+        <v>1226</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>967</v>
+      </c>
+      <c r="G13">
+        <v>984</v>
+      </c>
+      <c r="H13">
+        <v>625</v>
+      </c>
+      <c r="I13">
+        <v>791</v>
+      </c>
+      <c r="J13">
+        <v>277</v>
+      </c>
+      <c r="K13">
+        <v>1284</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>859</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>486</v>
+      </c>
+      <c r="D14">
+        <v>228</v>
+      </c>
+      <c r="E14">
+        <v>419</v>
+      </c>
+      <c r="F14">
+        <v>271</v>
+      </c>
+      <c r="G14">
+        <v>708</v>
+      </c>
+      <c r="H14">
+        <v>1090</v>
+      </c>
+      <c r="I14">
+        <v>559</v>
+      </c>
+      <c r="J14">
+        <v>1163</v>
+      </c>
+      <c r="K14">
+        <v>224</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>523.9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>1279</v>
+      </c>
+      <c r="C15">
+        <v>1104</v>
+      </c>
+      <c r="D15">
+        <v>1153</v>
+      </c>
+      <c r="E15">
+        <v>1186</v>
+      </c>
+      <c r="F15">
+        <v>1118</v>
+      </c>
+      <c r="G15">
+        <v>851</v>
+      </c>
+      <c r="H15">
+        <v>540</v>
+      </c>
+      <c r="I15">
+        <v>923</v>
+      </c>
+      <c r="J15">
+        <v>270</v>
+      </c>
+      <c r="K15">
+        <v>1564</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>998.8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>106</v>
+      </c>
+      <c r="C16">
+        <v>309</v>
+      </c>
+      <c r="D16">
+        <v>346</v>
+      </c>
+      <c r="E16">
+        <v>374</v>
+      </c>
+      <c r="F16">
+        <v>482</v>
+      </c>
+      <c r="G16">
+        <v>893</v>
+      </c>
+      <c r="H16">
+        <v>768</v>
+      </c>
+      <c r="I16">
+        <v>641</v>
+      </c>
+      <c r="J16">
+        <v>1184</v>
+      </c>
+      <c r="K16">
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>516.29999999999995</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M22" t="s">
         <v>16</v>
       </c>
-      <c r="N22" t="e">
+      <c r="N22">
         <f>AVERAGE(L1:L16)</f>
-        <v>#DIV/0!</v>
+        <v>760.23124999999993</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +5658,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K16"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1830,153 +5670,633 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>1832</v>
+      </c>
+      <c r="C1">
+        <v>202</v>
+      </c>
+      <c r="D1">
+        <v>608</v>
+      </c>
+      <c r="E1">
+        <v>355</v>
+      </c>
+      <c r="F1">
+        <v>1768</v>
+      </c>
+      <c r="G1">
+        <v>14</v>
+      </c>
+      <c r="H1">
+        <v>91</v>
+      </c>
+      <c r="I1">
+        <v>361</v>
+      </c>
+      <c r="J1">
+        <v>1970</v>
+      </c>
+      <c r="K1">
+        <v>586</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>778.7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>296</v>
+      </c>
+      <c r="C2">
+        <v>1900</v>
+      </c>
+      <c r="D2">
+        <v>1077</v>
+      </c>
+      <c r="E2">
+        <v>1620</v>
+      </c>
+      <c r="F2">
+        <v>91</v>
+      </c>
+      <c r="G2">
+        <v>2041</v>
+      </c>
+      <c r="H2">
+        <v>1774</v>
+      </c>
+      <c r="I2">
+        <v>2188</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <v>1661</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(B2:K2)</f>
+        <v>1464.8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>1827</v>
+      </c>
+      <c r="C3">
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <v>1037</v>
+      </c>
+      <c r="E3">
+        <v>479</v>
+      </c>
+      <c r="F3">
+        <v>1948</v>
+      </c>
+      <c r="G3">
+        <v>1857</v>
+      </c>
+      <c r="H3">
+        <v>148</v>
+      </c>
+      <c r="I3">
+        <v>677</v>
+      </c>
+      <c r="J3">
+        <v>98</v>
+      </c>
+      <c r="K3">
+        <v>731</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(B3:K3)</f>
+        <v>889.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <v>1992</v>
+      </c>
+      <c r="D4">
+        <v>1395</v>
+      </c>
+      <c r="E4">
+        <v>1781</v>
+      </c>
+      <c r="F4">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>2209</v>
+      </c>
+      <c r="H4">
+        <v>1693</v>
+      </c>
+      <c r="I4">
+        <v>2024</v>
+      </c>
+      <c r="J4">
+        <v>2053</v>
+      </c>
+      <c r="K4">
+        <v>1540</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE(B4:K4)</f>
+        <v>1499.1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>1795</v>
+      </c>
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <v>825</v>
+      </c>
+      <c r="E5">
+        <v>234</v>
+      </c>
+      <c r="F5">
+        <v>1848</v>
+      </c>
+      <c r="G5">
+        <v>2199</v>
+      </c>
+      <c r="H5">
+        <v>231</v>
+      </c>
+      <c r="I5">
+        <v>312</v>
+      </c>
+      <c r="J5">
+        <v>138</v>
+      </c>
+      <c r="K5">
+        <v>620</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L2:L16" si="0">AVERAGE(B5:K5)</f>
+        <v>845.8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>334</v>
+      </c>
+      <c r="C6">
+        <v>1876</v>
+      </c>
+      <c r="D6">
+        <v>1510</v>
+      </c>
+      <c r="E6">
+        <v>1915</v>
+      </c>
+      <c r="F6">
+        <v>118</v>
+      </c>
+      <c r="G6">
+        <v>130</v>
+      </c>
+      <c r="H6">
+        <v>1775</v>
+      </c>
+      <c r="I6">
+        <v>1728</v>
+      </c>
+      <c r="J6">
+        <v>1760</v>
+      </c>
+      <c r="K6">
+        <v>1323</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1246.9000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>1536</v>
+      </c>
+      <c r="C7">
+        <v>170</v>
+      </c>
+      <c r="D7">
+        <v>688</v>
+      </c>
+      <c r="E7">
+        <v>136</v>
+      </c>
+      <c r="F7">
+        <v>2077</v>
+      </c>
+      <c r="G7">
+        <v>1701</v>
+      </c>
+      <c r="H7">
+        <v>261</v>
+      </c>
+      <c r="I7">
+        <v>333</v>
+      </c>
+      <c r="J7">
+        <v>344</v>
+      </c>
+      <c r="K7">
+        <v>714</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>796</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>190</v>
+      </c>
+      <c r="C8">
+        <v>2112</v>
+      </c>
+      <c r="D8">
+        <v>1638</v>
+      </c>
+      <c r="E8">
+        <v>1923</v>
+      </c>
+      <c r="F8">
+        <v>158</v>
+      </c>
+      <c r="G8">
+        <v>185</v>
+      </c>
+      <c r="H8">
+        <v>1798</v>
+      </c>
+      <c r="I8">
+        <v>1685</v>
+      </c>
+      <c r="J8">
+        <v>1465</v>
+      </c>
+      <c r="K8">
+        <v>1551</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1270.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>1639</v>
+      </c>
+      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>611</v>
+      </c>
+      <c r="E9">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>2338</v>
+      </c>
+      <c r="G9">
+        <v>1842</v>
+      </c>
+      <c r="H9">
+        <v>346</v>
+      </c>
+      <c r="I9">
+        <v>294</v>
+      </c>
+      <c r="J9">
+        <v>269</v>
+      </c>
+      <c r="K9">
+        <v>634</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>809.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>344</v>
+      </c>
+      <c r="C10">
+        <v>2167</v>
+      </c>
+      <c r="D10">
+        <v>1376</v>
+      </c>
+      <c r="E10">
+        <v>1971</v>
+      </c>
+      <c r="F10">
+        <v>280</v>
+      </c>
+      <c r="G10">
+        <v>308</v>
+      </c>
+      <c r="H10">
+        <v>1579</v>
+      </c>
+      <c r="I10">
+        <v>1802</v>
+      </c>
+      <c r="J10">
+        <v>1836</v>
+      </c>
+      <c r="K10">
+        <v>1326</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1298.9000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>1573</v>
+      </c>
+      <c r="C11">
+        <v>61</v>
+      </c>
+      <c r="D11">
+        <v>728</v>
+      </c>
+      <c r="E11">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>1910</v>
+      </c>
+      <c r="G11">
+        <v>1744</v>
+      </c>
+      <c r="H11">
+        <v>260</v>
+      </c>
+      <c r="I11">
+        <v>204</v>
+      </c>
+      <c r="J11">
+        <v>146</v>
+      </c>
+      <c r="K11">
+        <v>782</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>744.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>312</v>
+      </c>
+      <c r="C12">
+        <v>2209</v>
+      </c>
+      <c r="D12">
+        <v>1087</v>
+      </c>
+      <c r="E12">
+        <v>2478</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+      <c r="G12">
+        <v>261</v>
+      </c>
+      <c r="H12">
+        <v>1499</v>
+      </c>
+      <c r="I12">
+        <v>1933</v>
+      </c>
+      <c r="J12">
+        <v>1982</v>
+      </c>
+      <c r="K12">
+        <v>1689</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1375</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>1658</v>
+      </c>
+      <c r="C13">
+        <v>228</v>
+      </c>
+      <c r="D13">
+        <v>1058</v>
+      </c>
+      <c r="E13">
+        <v>2019</v>
+      </c>
+      <c r="F13">
+        <v>1515</v>
+      </c>
+      <c r="G13">
+        <v>1742</v>
+      </c>
+      <c r="H13">
+        <v>453</v>
+      </c>
+      <c r="I13">
+        <v>169</v>
+      </c>
+      <c r="J13">
+        <v>108</v>
+      </c>
+      <c r="K13">
+        <v>704</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>965.4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>462</v>
+      </c>
+      <c r="C14">
+        <v>1851</v>
+      </c>
+      <c r="D14">
+        <v>908</v>
+      </c>
+      <c r="E14">
+        <v>2176</v>
+      </c>
+      <c r="F14">
+        <v>226</v>
+      </c>
+      <c r="G14">
+        <v>252</v>
+      </c>
+      <c r="H14">
+        <v>1833</v>
+      </c>
+      <c r="I14">
+        <v>2103</v>
+      </c>
+      <c r="J14">
+        <v>2405</v>
+      </c>
+      <c r="K14">
+        <v>1498</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1371.4</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>1745</v>
+      </c>
+      <c r="C15">
+        <v>275</v>
+      </c>
+      <c r="D15">
+        <v>1050</v>
+      </c>
+      <c r="E15">
+        <v>1960</v>
+      </c>
+      <c r="F15">
+        <v>1786</v>
+      </c>
+      <c r="G15">
+        <v>1964</v>
+      </c>
+      <c r="H15">
+        <v>469</v>
+      </c>
+      <c r="I15">
+        <v>77</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>913</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1025.3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>267</v>
+      </c>
+      <c r="C16">
+        <v>1931</v>
+      </c>
+      <c r="D16">
+        <v>1029</v>
+      </c>
+      <c r="E16">
+        <v>2132</v>
+      </c>
+      <c r="F16">
+        <v>221</v>
+      </c>
+      <c r="G16">
+        <v>196</v>
+      </c>
+      <c r="H16">
+        <v>1916</v>
+      </c>
+      <c r="I16">
+        <v>2064</v>
+      </c>
+      <c r="J16">
+        <v>2124</v>
+      </c>
+      <c r="K16">
+        <v>1335</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1321.5</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M21" t="s">
         <v>16</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21">
         <f>AVERAGE(L1:L16)</f>
-        <v>#DIV/0!</v>
+        <v>1106.4187499999998</v>
       </c>
     </row>
   </sheetData>
@@ -1989,7 +6309,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K17"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2001,153 +6321,633 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>2348</v>
+      </c>
+      <c r="C1">
+        <v>147</v>
+      </c>
+      <c r="D1">
+        <v>802</v>
+      </c>
+      <c r="E1">
+        <v>2573</v>
+      </c>
+      <c r="F1">
+        <v>890</v>
+      </c>
+      <c r="G1">
+        <v>980</v>
+      </c>
+      <c r="H1">
+        <v>589</v>
+      </c>
+      <c r="I1">
+        <v>1745</v>
+      </c>
+      <c r="J1">
+        <v>41</v>
+      </c>
+      <c r="K1">
+        <v>1521</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>1163.5999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>877</v>
+      </c>
+      <c r="C2">
+        <v>2625</v>
+      </c>
+      <c r="D2">
+        <v>1742</v>
+      </c>
+      <c r="E2">
+        <v>422</v>
+      </c>
+      <c r="F2">
+        <v>1999</v>
+      </c>
+      <c r="G2">
+        <v>1796</v>
+      </c>
+      <c r="H2">
+        <v>2038</v>
+      </c>
+      <c r="I2">
+        <v>1082</v>
+      </c>
+      <c r="J2">
+        <v>2384</v>
+      </c>
+      <c r="K2">
+        <v>1253</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>1621.8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>1886</v>
+      </c>
+      <c r="C3">
+        <v>215</v>
+      </c>
+      <c r="D3">
+        <v>808</v>
+      </c>
+      <c r="E3">
+        <v>2555</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>1019</v>
+      </c>
+      <c r="H3">
+        <v>561</v>
+      </c>
+      <c r="I3">
+        <v>1970</v>
+      </c>
+      <c r="J3">
+        <v>104</v>
+      </c>
+      <c r="K3">
+        <v>1653</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(B3:K3)</f>
+        <v>1077.9000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>464</v>
+      </c>
+      <c r="C4">
+        <v>2834</v>
+      </c>
+      <c r="D4">
+        <v>1534</v>
+      </c>
+      <c r="E4">
+        <v>135</v>
+      </c>
+      <c r="F4">
+        <v>908</v>
+      </c>
+      <c r="G4">
+        <v>1657</v>
+      </c>
+      <c r="H4">
+        <v>1612</v>
+      </c>
+      <c r="I4">
+        <v>776</v>
+      </c>
+      <c r="J4">
+        <v>2415</v>
+      </c>
+      <c r="K4">
+        <v>1419</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE(B4:K4)</f>
+        <v>1375.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>1890</v>
+      </c>
+      <c r="C5">
+        <v>113</v>
+      </c>
+      <c r="D5">
+        <v>1426</v>
+      </c>
+      <c r="E5">
+        <v>2249</v>
+      </c>
+      <c r="F5">
+        <v>2596</v>
+      </c>
+      <c r="G5">
+        <v>1060</v>
+      </c>
+      <c r="H5">
+        <v>1086</v>
+      </c>
+      <c r="I5">
+        <v>1998</v>
+      </c>
+      <c r="J5">
+        <v>434</v>
+      </c>
+      <c r="K5">
+        <v>1587</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE(B5:K5)</f>
+        <v>1443.9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>437</v>
+      </c>
+      <c r="C6">
+        <v>2423</v>
+      </c>
+      <c r="D6">
+        <v>1265</v>
+      </c>
+      <c r="E6">
+        <v>352</v>
+      </c>
+      <c r="F6">
+        <v>383</v>
+      </c>
+      <c r="G6">
+        <v>1769</v>
+      </c>
+      <c r="H6">
+        <v>1507</v>
+      </c>
+      <c r="I6">
+        <v>935</v>
+      </c>
+      <c r="J6">
+        <v>2263</v>
+      </c>
+      <c r="K6">
+        <v>1255</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1258.9000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>2332</v>
+      </c>
+      <c r="C7">
+        <v>337</v>
+      </c>
+      <c r="D7">
+        <v>1340</v>
+      </c>
+      <c r="E7">
+        <v>2617</v>
+      </c>
+      <c r="F7">
+        <v>2641</v>
+      </c>
+      <c r="G7">
+        <v>904</v>
+      </c>
+      <c r="H7">
+        <v>1271</v>
+      </c>
+      <c r="I7">
+        <v>2411</v>
+      </c>
+      <c r="J7">
+        <v>464</v>
+      </c>
+      <c r="K7">
+        <v>1481</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1579.8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>448</v>
+      </c>
+      <c r="C8">
+        <v>2059</v>
+      </c>
+      <c r="D8">
+        <v>1664</v>
+      </c>
+      <c r="E8">
+        <v>203</v>
+      </c>
+      <c r="F8">
+        <v>250</v>
+      </c>
+      <c r="G8">
+        <v>2080</v>
+      </c>
+      <c r="H8">
+        <v>1833</v>
+      </c>
+      <c r="I8">
+        <v>799</v>
+      </c>
+      <c r="J8">
+        <v>2346</v>
+      </c>
+      <c r="K8">
+        <v>816</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1249.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>2493</v>
+      </c>
+      <c r="C9">
+        <v>284</v>
+      </c>
+      <c r="D9">
+        <v>917</v>
+      </c>
+      <c r="E9">
+        <v>2374</v>
+      </c>
+      <c r="F9">
+        <v>2790</v>
+      </c>
+      <c r="G9">
+        <v>1008</v>
+      </c>
+      <c r="H9">
+        <v>1392</v>
+      </c>
+      <c r="I9">
+        <v>2106</v>
+      </c>
+      <c r="J9">
+        <v>966</v>
+      </c>
+      <c r="K9">
+        <v>1918</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1624.8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>472</v>
+      </c>
+      <c r="C10">
+        <v>2586</v>
+      </c>
+      <c r="D10">
+        <v>1476</v>
+      </c>
+      <c r="E10">
+        <v>426</v>
+      </c>
+      <c r="F10">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>1847</v>
+      </c>
+      <c r="H10">
+        <v>1967</v>
+      </c>
+      <c r="I10">
+        <v>604</v>
+      </c>
+      <c r="J10">
+        <v>2185</v>
+      </c>
+      <c r="K10">
+        <v>1083</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1268.2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>2056</v>
+      </c>
+      <c r="C11">
+        <v>396</v>
+      </c>
+      <c r="D11">
+        <v>1250</v>
+      </c>
+      <c r="E11">
+        <v>2506</v>
+      </c>
+      <c r="F11">
+        <v>2447</v>
+      </c>
+      <c r="G11">
+        <v>910</v>
+      </c>
+      <c r="H11">
+        <v>1286</v>
+      </c>
+      <c r="I11">
+        <v>2272</v>
+      </c>
+      <c r="J11">
+        <v>882</v>
+      </c>
+      <c r="K11">
+        <v>1661</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1566.6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <v>2473</v>
+      </c>
+      <c r="D12">
+        <v>1302</v>
+      </c>
+      <c r="E12">
+        <v>149</v>
+      </c>
+      <c r="F12">
+        <v>93</v>
+      </c>
+      <c r="G12">
+        <v>2046</v>
+      </c>
+      <c r="H12">
+        <v>1530</v>
+      </c>
+      <c r="I12">
+        <v>401</v>
+      </c>
+      <c r="J12">
+        <v>1719</v>
+      </c>
+      <c r="K12">
+        <v>1017</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1103</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>2153</v>
+      </c>
+      <c r="C13">
+        <v>345</v>
+      </c>
+      <c r="D13">
+        <v>1459</v>
+      </c>
+      <c r="E13">
+        <v>2644</v>
+      </c>
+      <c r="F13">
+        <v>2584</v>
+      </c>
+      <c r="G13">
+        <v>539</v>
+      </c>
+      <c r="H13">
+        <v>1039</v>
+      </c>
+      <c r="I13">
+        <v>2063</v>
+      </c>
+      <c r="J13">
+        <v>1115</v>
+      </c>
+      <c r="K13">
+        <v>1873</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1581.4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>443</v>
+      </c>
+      <c r="C14">
+        <v>2810</v>
+      </c>
+      <c r="D14">
+        <v>1242</v>
+      </c>
+      <c r="E14">
+        <v>121</v>
+      </c>
+      <c r="F14">
+        <v>416</v>
+      </c>
+      <c r="G14">
+        <v>2522</v>
+      </c>
+      <c r="H14">
+        <v>1747</v>
+      </c>
+      <c r="I14">
+        <v>719</v>
+      </c>
+      <c r="J14">
+        <v>1662</v>
+      </c>
+      <c r="K14">
+        <v>931</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1261.3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>2190</v>
+      </c>
+      <c r="C15">
+        <v>277</v>
+      </c>
+      <c r="D15">
+        <v>1387</v>
+      </c>
+      <c r="E15">
+        <v>3076</v>
+      </c>
+      <c r="F15">
+        <v>2943</v>
+      </c>
+      <c r="G15">
+        <v>687</v>
+      </c>
+      <c r="H15">
+        <v>1549</v>
+      </c>
+      <c r="I15">
+        <v>1799</v>
+      </c>
+      <c r="J15">
+        <v>1191</v>
+      </c>
+      <c r="K15">
+        <v>1799</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1689.8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>388</v>
+      </c>
+      <c r="C16">
+        <v>2876</v>
+      </c>
+      <c r="D16">
+        <v>907</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>284</v>
+      </c>
+      <c r="G16">
+        <v>2085</v>
+      </c>
+      <c r="H16">
+        <v>1837</v>
+      </c>
+      <c r="I16">
+        <v>736</v>
+      </c>
+      <c r="J16">
+        <v>1646</v>
+      </c>
+      <c r="K16">
+        <v>995</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1178</v>
       </c>
     </row>
     <row r="23" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M23" t="s">
         <v>16</v>
       </c>
-      <c r="N23" t="e">
+      <c r="N23">
         <f>AVERAGE(L1:L16)</f>
-        <v>#DIV/0!</v>
+        <v>1377.7624999999998</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/MultiUserIncreaseTa.xlsx
+++ b/documentation/MultiUserIncreaseTa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
@@ -26,7 +26,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -102,6 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -455,158 +456,638 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="L1" t="e" s="0">
         <f>AVERAGE(B1:K1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="L2" t="e" s="0">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
+      <c r="B3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="L3" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
+      <c r="B4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="L4" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
+      <c r="B5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="L5" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
+      <c r="B6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L6" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
+      <c r="B7" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="L7" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
+      <c r="B8" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="L8" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
+      <c r="B9" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L9" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
+      <c r="B10" t="n" s="0">
+        <v>61.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="L10" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
+      <c r="B11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="L11" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
+      <c r="B12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="L12" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
+      <c r="B13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="L13" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
+      <c r="B14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="L14" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
+      <c r="B15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="L15" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
+      <c r="B16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="L16" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M20" t="s">
+      <c r="M20" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="N20" t="e">
+      <c r="N20" t="e" s="0">
         <f>AVERAGE(L1:L16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -626,158 +1107,638 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1" t="n" s="0">
+        <v>1436.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>2177.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>1105.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>1130.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>2039.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>1874.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>986.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>2193.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>618.0</v>
+      </c>
+      <c r="L1" t="e" s="0">
         <f>AVERAGE(B1:K1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2" t="n" s="0">
+        <v>1143.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>924.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>1102.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>229.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>1966.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>1209.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>2684.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>1710.0</v>
+      </c>
+      <c r="L2" t="e" s="0">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
+      <c r="B3" t="n" s="0">
+        <v>1356.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>2095.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>880.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>1536.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>1684.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>1956.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>1130.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>1069.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>487.0</v>
+      </c>
+      <c r="L3" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
+      <c r="B4" t="n" s="0">
+        <v>1235.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>1098.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>1015.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>1297.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>1038.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>2452.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>2042.0</v>
+      </c>
+      <c r="L4" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
+      <c r="B5" t="n" s="0">
+        <v>1127.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>2383.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>1276.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>1239.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>2146.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>1782.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>994.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>1478.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>2555.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>409.0</v>
+      </c>
+      <c r="L5" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
+      <c r="B6" t="n" s="0">
+        <v>1358.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>61.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>1234.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>1440.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>191.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>1533.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>725.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>2100.0</v>
+      </c>
+      <c r="L6" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
+      <c r="B7" t="n" s="0">
+        <v>471.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>2280.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>1214.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>1592.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>2073.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>2005.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>1314.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>2066.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>2658.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>346.0</v>
+      </c>
+      <c r="L7" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
+      <c r="B8" t="n" s="0">
+        <v>1445.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>670.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>825.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>96.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>1237.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>610.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>1944.0</v>
+      </c>
+      <c r="L8" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
+      <c r="B9" t="n" s="0">
+        <v>950.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>1746.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>1477.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>1163.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>2209.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>1730.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>1560.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>2169.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>2236.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>610.0</v>
+      </c>
+      <c r="L9" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
+      <c r="B10" t="n" s="0">
+        <v>1315.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>528.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>1006.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>662.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>1086.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>335.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>221.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>1658.0</v>
+      </c>
+      <c r="L10" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
+      <c r="B11" t="n" s="0">
+        <v>820.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>1893.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>1386.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>1393.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>1808.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>2274.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>1296.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>1756.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>2625.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>798.0</v>
+      </c>
+      <c r="L11" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
+      <c r="B12" t="n" s="0">
+        <v>1652.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>843.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>884.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>498.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>153.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>2078.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>577.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>1387.0</v>
+      </c>
+      <c r="L12" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
+      <c r="B13" t="n" s="0">
+        <v>463.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>1156.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>1260.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>2015.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>1823.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>2062.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>554.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>1803.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>1501.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>1020.0</v>
+      </c>
+      <c r="L13" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
+      <c r="B14" t="n" s="0">
+        <v>2170.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>1018.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>1634.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>369.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>3704.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>197.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>951.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>1216.0</v>
+      </c>
+      <c r="L14" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
+      <c r="B15" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>964.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>822.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>1994.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>1929.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>2340.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>2871.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>1681.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>709.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>890.0</v>
+      </c>
+      <c r="L15" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
+      <c r="B16" t="n" s="0">
+        <v>1874.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>1040.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>2095.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>393.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>153.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>2813.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>331.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>1614.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>1157.0</v>
+      </c>
+      <c r="L16" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M21" t="s">
+      <c r="M21" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21" t="e" s="0">
         <f>AVERAGE(L1:L16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -797,158 +1758,638 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L1" t="e" s="0">
         <f>AVERAGE(B1:K1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="L2" t="e" s="0">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
+      <c r="B3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="L3" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
+      <c r="B4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="L4" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
+      <c r="B5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="L5" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
+      <c r="B6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="L6" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
+      <c r="B7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="L7" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
+      <c r="B8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="L8" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
+      <c r="B9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="L9" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
+      <c r="B10" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="L10" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
+      <c r="B11" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="L11" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
+      <c r="B12" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="L12" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
+      <c r="B13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="L13" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
+      <c r="B14" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="L14" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
+      <c r="B15" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="L15" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
+      <c r="B16" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="L16" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M21" t="s">
+      <c r="M21" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21" t="e" s="0">
         <f>AVERAGE(L1:L16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -968,158 +2409,638 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>59.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="L1" t="e" s="0">
         <f>AVERAGE(B1:K1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L2" t="e" s="0">
         <f>AVERAGE(B2:K2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
+      <c r="B3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="L3" t="e" s="0">
         <f t="shared" ref="L3:L16" si="0">AVERAGE(B3:K3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
+      <c r="B4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="L4" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
+      <c r="B5" t="n" s="0">
+        <v>59.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="L5" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
+      <c r="B6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="L6" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
+      <c r="B7" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="L7" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
+      <c r="B8" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="L8" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
+      <c r="B9" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L9" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
+      <c r="B10" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="L10" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
+      <c r="B11" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="L11" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
+      <c r="B12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>59.0</v>
+      </c>
+      <c r="L12" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
+      <c r="B13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="L13" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
+      <c r="B14" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="L14" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
+      <c r="B15" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="L15" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
+      <c r="B16" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="L16" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L20" t="s">
+      <c r="L20" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="M20" t="e">
+      <c r="M20" t="e" s="0">
         <f>AVERAGE(L1:L16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1139,158 +3060,638 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="L1" t="e" s="0">
         <f>AVERAGE(B1:K1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="L2" t="e" s="0">
         <f t="shared" ref="L2:L15" si="0">AVERAGE(B2:K2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
+      <c r="B3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="L3" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
+      <c r="B4" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="L4" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
+      <c r="B5" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="L5" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
+      <c r="B6" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="L6" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
+      <c r="B7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="L7" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
+      <c r="B8" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="L8" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
+      <c r="B9" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="L9" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
+      <c r="B10" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="L10" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
+      <c r="B11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="L11" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
+      <c r="B12" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="L12" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
+      <c r="B13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="L13" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
+      <c r="B14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="L14" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
+      <c r="B15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="L15" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
+      <c r="B16" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="L16" t="e" s="0">
         <f>AVERAGE(B16:K16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M20" t="s">
+      <c r="M20" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="N20" t="e">
+      <c r="N20" t="e" s="0">
         <f>AVERAGE(L1:L17)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1310,158 +3711,638 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L1" t="e" s="0">
         <f>AVERAGE(B1:K1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="L2" t="e" s="0">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
+      <c r="B3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="L3" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
+      <c r="B4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="L4" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
+      <c r="B5" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="L5" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
+      <c r="B6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="L6" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
+      <c r="B7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="L7" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
+      <c r="B8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>57.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="L8" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
+      <c r="B9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="L9" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
+      <c r="B10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="L10" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
+      <c r="B11" t="n" s="0">
+        <v>103.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="L11" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
+      <c r="B12" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="L12" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
+      <c r="B13" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="L13" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
+      <c r="B14" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="L14" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
+      <c r="B15" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="L15" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
+      <c r="B16" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>58.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="L16" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M22" t="s">
+      <c r="M22" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="N22" t="e">
+      <c r="N22" t="e" s="0">
         <f>AVERAGE(L1:L16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1481,158 +4362,638 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>214.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="L1" t="e" s="0">
         <f>AVERAGE(B1:K1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="L2" t="e" s="0">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
+      <c r="B3" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="L3" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
+      <c r="B4" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="L4" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
+      <c r="B5" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="L5" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
+      <c r="B6" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="L6" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
+      <c r="B7" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="L7" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
+      <c r="B8" t="n" s="0">
+        <v>91.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>99.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="L8" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
+      <c r="B9" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>131.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="L9" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
+      <c r="B10" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>151.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="L10" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
+      <c r="B11" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>204.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="L11" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
+      <c r="B12" t="n" s="0">
+        <v>107.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="L12" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
+      <c r="B13" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>161.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>94.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="L13" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
+      <c r="B14" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>139.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="L14" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
+      <c r="B15" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>156.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>57.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="L15" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
+      <c r="B16" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>68.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="L16" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M21" t="s">
+      <c r="M21" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21" t="e" s="0">
         <f>AVERAGE(L1:L16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1652,158 +5013,638 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>357.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>319.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="L1" t="e" s="0">
         <f>AVERAGE(B1:K1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>126.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>182.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>342.0</v>
+      </c>
+      <c r="L2" t="e" s="0">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
+      <c r="B3" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>252.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>186.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="L3" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
+      <c r="B4" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>209.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>214.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>407.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>92.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>197.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>401.0</v>
+      </c>
+      <c r="L4" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
+      <c r="B5" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>129.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>178.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>185.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="L5" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
+      <c r="B6" t="n" s="0">
+        <v>185.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>356.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>435.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>88.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>143.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>164.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>335.0</v>
+      </c>
+      <c r="L6" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
+      <c r="B7" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>164.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="L7" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
+      <c r="B8" t="n" s="0">
+        <v>239.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>482.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>192.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>375.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>191.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>195.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>253.0</v>
+      </c>
+      <c r="L8" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
+      <c r="B9" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>283.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>239.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>263.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>204.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="L9" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
+      <c r="B10" t="n" s="0">
+        <v>328.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>193.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>287.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>354.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>287.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>284.0</v>
+      </c>
+      <c r="L10" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
+      <c r="B11" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>236.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>312.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>330.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>147.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="L11" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
+      <c r="B12" t="n" s="0">
+        <v>416.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>259.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>291.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>432.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>216.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>159.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>389.0</v>
+      </c>
+      <c r="L12" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
+      <c r="B13" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>236.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>241.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>99.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>107.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="L13" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
+      <c r="B14" t="n" s="0">
+        <v>419.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>354.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>666.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>183.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>413.0</v>
+      </c>
+      <c r="L14" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
+      <c r="B15" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>486.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>248.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>473.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>61.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>238.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>215.0</v>
+      </c>
+      <c r="L15" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
+      <c r="B16" t="n" s="0">
+        <v>312.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>343.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>173.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>213.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>167.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>409.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>377.0</v>
+      </c>
+      <c r="L16" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M22" t="s">
+      <c r="M22" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="N22" t="e">
+      <c r="N22" t="e" s="0">
         <f>AVERAGE(L1:L16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1823,158 +5664,638 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1" t="n" s="0">
+        <v>761.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>209.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>269.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>732.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>489.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>757.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>827.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>502.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>666.0</v>
+      </c>
+      <c r="L1" t="e" s="0">
         <f>AVERAGE(B1:K1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>342.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>596.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>154.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>766.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>254.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>269.0</v>
+      </c>
+      <c r="L2" t="e" s="0">
         <f>AVERAGE(B2:K2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
+      <c r="B3" t="n" s="0">
+        <v>829.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>185.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>379.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>801.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>693.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>760.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>748.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>913.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>801.0</v>
+      </c>
+      <c r="L3" t="e" s="0">
         <f>AVERAGE(B3:K3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
+      <c r="B4" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>277.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>821.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>716.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>771.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>92.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="L4" t="e" s="0">
         <f>AVERAGE(B4:K4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
+      <c r="B5" t="n" s="0">
+        <v>708.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>248.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>262.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>490.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>901.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>1117.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>149.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>756.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>996.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>630.0</v>
+      </c>
+      <c r="L5" t="e" s="0">
         <f t="shared" ref="L5:L16" si="0">AVERAGE(B5:K5)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
+      <c r="B6" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>619.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>274.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>653.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>419.0</v>
+      </c>
+      <c r="L6" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
+      <c r="B7" t="n" s="0">
+        <v>701.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>340.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>656.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>703.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>1297.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>748.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>948.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>685.0</v>
+      </c>
+      <c r="L7" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
+      <c r="B8" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>387.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>445.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>182.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>570.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>92.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="L8" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
+      <c r="B9" t="n" s="0">
+        <v>749.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>383.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>228.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>750.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>459.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>1113.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>784.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>789.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>732.0</v>
+      </c>
+      <c r="L9" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
+      <c r="B10" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>748.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>232.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>748.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="L10" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
+      <c r="B11" t="n" s="0">
+        <v>495.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>598.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>153.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>634.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>728.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>874.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>870.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>829.0</v>
+      </c>
+      <c r="L11" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
+      <c r="B12" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>603.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>879.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>193.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>816.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>275.0</v>
+      </c>
+      <c r="L12" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
+      <c r="B13" t="n" s="0">
+        <v>597.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>710.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>149.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>716.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>813.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>725.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>811.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>559.0</v>
+      </c>
+      <c r="L13" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
+      <c r="B14" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>544.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>727.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>251.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>724.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>87.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="L14" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
+      <c r="B15" t="n" s="0">
+        <v>694.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>647.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>211.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>632.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>780.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>648.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>726.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>746.0</v>
+      </c>
+      <c r="L15" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
+      <c r="B16" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>414.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>827.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>641.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="L16" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M21" t="s">
+      <c r="M21" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21" t="e" s="0">
         <f>AVERAGE(L1:L16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1994,158 +6315,638 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1" t="n" s="0">
+        <v>927.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>526.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>477.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>506.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>904.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>1397.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>952.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>961.0</v>
+      </c>
+      <c r="L1" t="e" s="0">
         <f>AVERAGE(B1:K1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2" t="n" s="0">
+        <v>723.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>810.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>992.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>1464.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>548.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>969.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>501.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>393.0</v>
+      </c>
+      <c r="L2" t="e" s="0">
         <f t="shared" ref="L2:L16" si="0">AVERAGE(B2:K2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
+      <c r="B3" t="n" s="0">
+        <v>751.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>594.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>476.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>536.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>290.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>850.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>161.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>1287.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>963.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>1071.0</v>
+      </c>
+      <c r="L3" t="e" s="0">
         <f>AVERAGE(B3:K3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
+      <c r="B4" t="n" s="0">
+        <v>931.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>647.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>1400.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>1059.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>1089.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>758.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>1384.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>91.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>389.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>714.0</v>
+      </c>
+      <c r="L4" t="e" s="0">
         <f>AVERAGE(B4:K4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
+      <c r="B5" t="n" s="0">
+        <v>771.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>713.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>589.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>618.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>576.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>536.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>1161.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>910.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>841.0</v>
+      </c>
+      <c r="L5" t="e" s="0">
         <f>AVERAGE(B5:K5)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
+      <c r="B6" t="n" s="0">
+        <v>677.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>844.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>1134.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>714.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>673.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>844.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>1115.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>576.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>813.0</v>
+      </c>
+      <c r="L6" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
+      <c r="B7" t="n" s="0">
+        <v>441.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>970.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>346.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>553.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>568.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>657.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>361.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>1479.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>917.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>1130.0</v>
+      </c>
+      <c r="L7" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
+      <c r="B8" t="n" s="0">
+        <v>696.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>838.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>1322.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>706.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>679.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>857.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>1208.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>830.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>631.0</v>
+      </c>
+      <c r="L8" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
+      <c r="B9" t="n" s="0">
+        <v>599.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>664.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>383.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>616.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>784.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>639.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>1210.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>956.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>901.0</v>
+      </c>
+      <c r="L9" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
+      <c r="B10" t="n" s="0">
+        <v>674.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>657.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>1148.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>796.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>691.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>805.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>751.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>580.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>663.0</v>
+      </c>
+      <c r="L10" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
+      <c r="B11" t="n" s="0">
+        <v>666.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>689.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>362.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>561.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>1002.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>990.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>366.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>1350.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>825.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>777.0</v>
+      </c>
+      <c r="L11" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
+      <c r="B12" t="n" s="0">
+        <v>426.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>672.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>1076.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>1061.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>621.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>790.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>1043.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>167.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>693.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>380.0</v>
+      </c>
+      <c r="L12" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
+      <c r="B13" t="n" s="0">
+        <v>864.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>595.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>670.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>546.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>962.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>834.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>313.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>1370.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>830.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>944.0</v>
+      </c>
+      <c r="L13" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
+      <c r="B14" t="n" s="0">
+        <v>379.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>566.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>917.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>1099.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>471.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>662.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>779.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>178.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>1053.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>436.0</v>
+      </c>
+      <c r="L14" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
+      <c r="B15" t="n" s="0">
+        <v>1003.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>675.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>801.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>465.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>929.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>925.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>454.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>901.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>629.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>1216.0</v>
+      </c>
+      <c r="L15" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
+      <c r="B16" t="n" s="0">
+        <v>282.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>883.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>901.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>987.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>491.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>769.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>747.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>298.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>1050.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>380.0</v>
+      </c>
+      <c r="L16" t="e" s="0">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M23" t="s">
+      <c r="M23" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="N23" t="e">
+      <c r="N23" t="e" s="0">
         <f>AVERAGE(L1:L16)</f>
         <v>#DIV/0!</v>
       </c>
